--- a/data/expected_death_inla70_1918.xlsx
+++ b/data/expected_death_inla70_1918.xlsx
@@ -824,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>39.8379885822386</v>
+        <v>40.0012466923731</v>
       </c>
       <c r="D2" t="n">
-        <v>33.2722463476676</v>
+        <v>33.1574281277728</v>
       </c>
       <c r="E2" t="n">
-        <v>47.490686844821</v>
+        <v>47.87958228022</v>
       </c>
       <c r="F2" t="n">
         <v>1918</v>
@@ -862,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>24.0228269778191</v>
+        <v>23.9760069137746</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6064451476805</v>
+        <v>19.1882462512675</v>
       </c>
       <c r="E3" t="n">
-        <v>29.6365344067107</v>
+        <v>29.4813302523317</v>
       </c>
       <c r="F3" t="n">
         <v>1918</v>
@@ -900,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>83.9570751075869</v>
+        <v>83.6175350844746</v>
       </c>
       <c r="D4" t="n">
-        <v>73.0679611315085</v>
+        <v>71.9204224242042</v>
       </c>
       <c r="E4" t="n">
-        <v>96.0989793559239</v>
+        <v>97.1960655223319</v>
       </c>
       <c r="F4" t="n">
         <v>1918</v>
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>615.612100967014</v>
+        <v>617.021972634329</v>
       </c>
       <c r="D5" t="n">
-        <v>565.191728708059</v>
+        <v>554.74345353877</v>
       </c>
       <c r="E5" t="n">
-        <v>676.189635377517</v>
+        <v>683.455179153705</v>
       </c>
       <c r="F5" t="n">
         <v>1918</v>
@@ -976,13 +976,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>95.4487792465533</v>
+        <v>95.2003165080027</v>
       </c>
       <c r="D6" t="n">
-        <v>83.7688481686995</v>
+        <v>82.4012611691301</v>
       </c>
       <c r="E6" t="n">
-        <v>109.631052416348</v>
+        <v>110.290100507566</v>
       </c>
       <c r="F6" t="n">
         <v>1918</v>
@@ -1014,13 +1014,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>402.405516212665</v>
+        <v>404.902349546768</v>
       </c>
       <c r="D7" t="n">
-        <v>365.958041282489</v>
+        <v>365.54860901615</v>
       </c>
       <c r="E7" t="n">
-        <v>442.985297076669</v>
+        <v>450.633839854952</v>
       </c>
       <c r="F7" t="n">
         <v>1918</v>
@@ -1052,13 +1052,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>110.721030486432</v>
+        <v>110.81746356839</v>
       </c>
       <c r="D8" t="n">
-        <v>97.7933532827693</v>
+        <v>96.972543177461</v>
       </c>
       <c r="E8" t="n">
-        <v>124.784905149547</v>
+        <v>126.375146915666</v>
       </c>
       <c r="F8" t="n">
         <v>1918</v>
@@ -1090,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>56.3307272428843</v>
+        <v>56.1676405967821</v>
       </c>
       <c r="D9" t="n">
-        <v>48.1038056390122</v>
+        <v>47.6790758931929</v>
       </c>
       <c r="E9" t="n">
-        <v>65.4913558778019</v>
+        <v>66.3973612258873</v>
       </c>
       <c r="F9" t="n">
         <v>1918</v>
@@ -1128,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>96.322299260233</v>
+        <v>96.0727688260919</v>
       </c>
       <c r="D10" t="n">
-        <v>84.3140270828577</v>
+        <v>84.5576041824534</v>
       </c>
       <c r="E10" t="n">
-        <v>109.256948461478</v>
+        <v>111.214202531869</v>
       </c>
       <c r="F10" t="n">
         <v>1918</v>
@@ -1166,13 +1166,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>40.6704537355193</v>
+        <v>40.8261429573442</v>
       </c>
       <c r="D11" t="n">
-        <v>34.0196409696119</v>
+        <v>33.6140267121382</v>
       </c>
       <c r="E11" t="n">
-        <v>48.1636310964475</v>
+        <v>49.013669278767</v>
       </c>
       <c r="F11" t="n">
         <v>1918</v>
@@ -1204,13 +1204,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>47.8775163677168</v>
+        <v>48.2750332599285</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2939195227226</v>
+        <v>40.4029760960268</v>
       </c>
       <c r="E12" t="n">
-        <v>56.9407885970912</v>
+        <v>56.9356505511943</v>
       </c>
       <c r="F12" t="n">
         <v>1918</v>
@@ -1242,13 +1242,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>89.277838807248</v>
+        <v>89.0294316658005</v>
       </c>
       <c r="D13" t="n">
-        <v>79.2064299052553</v>
+        <v>77.1293296071026</v>
       </c>
       <c r="E13" t="n">
-        <v>101.853213264372</v>
+        <v>102.972929189603</v>
       </c>
       <c r="F13" t="n">
         <v>1918</v>
@@ -1280,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>65.9977044544841</v>
+        <v>66.4072413016948</v>
       </c>
       <c r="D14" t="n">
-        <v>56.6046423022472</v>
+        <v>56.6828341048366</v>
       </c>
       <c r="E14" t="n">
-        <v>76.5706398379361</v>
+        <v>77.8267336361943</v>
       </c>
       <c r="F14" t="n">
         <v>1918</v>
@@ -1318,13 +1318,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>55.5083806108092</v>
+        <v>55.5451826347607</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2782680882199</v>
+        <v>47.3693281317782</v>
       </c>
       <c r="E15" t="n">
-        <v>64.5513145625149</v>
+        <v>66.2782250464299</v>
       </c>
       <c r="F15" t="n">
         <v>1918</v>
@@ -1356,13 +1356,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>94.4948842896703</v>
+        <v>94.6015990164422</v>
       </c>
       <c r="D16" t="n">
-        <v>82.8407238692178</v>
+        <v>82.8898369259211</v>
       </c>
       <c r="E16" t="n">
-        <v>106.311912801894</v>
+        <v>108.80323777295</v>
       </c>
       <c r="F16" t="n">
         <v>1918</v>
@@ -1394,13 +1394,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>175.303400090417</v>
+        <v>175.623993007511</v>
       </c>
       <c r="D17" t="n">
-        <v>156.981994872864</v>
+        <v>153.545662078191</v>
       </c>
       <c r="E17" t="n">
-        <v>194.928798647981</v>
+        <v>197.852441989994</v>
       </c>
       <c r="F17" t="n">
         <v>1918</v>
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>64.6383701175238</v>
+        <v>64.5377935494606</v>
       </c>
       <c r="D18" t="n">
-        <v>54.9783022660807</v>
+        <v>54.9292952743752</v>
       </c>
       <c r="E18" t="n">
-        <v>75.2010523206666</v>
+        <v>75.7681483455641</v>
       </c>
       <c r="F18" t="n">
         <v>1918</v>
@@ -1470,13 +1470,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>48.8610509706638</v>
+        <v>48.9615327292882</v>
       </c>
       <c r="D19" t="n">
-        <v>41.468040279497</v>
+        <v>41.2553084313307</v>
       </c>
       <c r="E19" t="n">
-        <v>57.11264820409</v>
+        <v>58.8177429137944</v>
       </c>
       <c r="F19" t="n">
         <v>1918</v>
@@ -1508,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>90.4897855109725</v>
+        <v>90.2075865475378</v>
       </c>
       <c r="D20" t="n">
-        <v>78.4816285560926</v>
+        <v>77.7516214998701</v>
       </c>
       <c r="E20" t="n">
-        <v>103.265753440532</v>
+        <v>103.346313161228</v>
       </c>
       <c r="F20" t="n">
         <v>1918</v>
@@ -1546,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>78.2196112743341</v>
+        <v>78.5927996314628</v>
       </c>
       <c r="D21" t="n">
-        <v>68.4543733866497</v>
+        <v>67.3929579059342</v>
       </c>
       <c r="E21" t="n">
-        <v>89.7869102122534</v>
+        <v>91.020335840844</v>
       </c>
       <c r="F21" t="n">
         <v>1918</v>
@@ -1584,13 +1584,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>70.3048616443329</v>
+        <v>70.7337810013358</v>
       </c>
       <c r="D22" t="n">
-        <v>60.7493167135896</v>
+        <v>60.4197615950386</v>
       </c>
       <c r="E22" t="n">
-        <v>80.254602419226</v>
+        <v>82.8460391406143</v>
       </c>
       <c r="F22" t="n">
         <v>1918</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>97.8825679928559</v>
+        <v>97.3150719001303</v>
       </c>
       <c r="D23" t="n">
-        <v>85.6817477458063</v>
+        <v>84.9956526800456</v>
       </c>
       <c r="E23" t="n">
-        <v>111.952115352936</v>
+        <v>112.277809074988</v>
       </c>
       <c r="F23" t="n">
         <v>1918</v>
@@ -1660,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>111.844662517442</v>
+        <v>111.974087840764</v>
       </c>
       <c r="D24" t="n">
-        <v>97.1751205704228</v>
+        <v>97.7061318434155</v>
       </c>
       <c r="E24" t="n">
-        <v>126.868504291825</v>
+        <v>128.370445397231</v>
       </c>
       <c r="F24" t="n">
         <v>1918</v>
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>78.7450376617729</v>
+        <v>78.9132079748973</v>
       </c>
       <c r="D25" t="n">
-        <v>68.1756543693274</v>
+        <v>67.5474722621248</v>
       </c>
       <c r="E25" t="n">
-        <v>90.439443200345</v>
+        <v>91.1208081368287</v>
       </c>
       <c r="F25" t="n">
         <v>1918</v>
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>63.0650934850378</v>
+        <v>62.7135029699909</v>
       </c>
       <c r="D26" t="n">
-        <v>53.626270204151</v>
+        <v>52.679698677311</v>
       </c>
       <c r="E26" t="n">
-        <v>73.9878948979082</v>
+        <v>73.8551456914874</v>
       </c>
       <c r="F26" t="n">
         <v>1918</v>
@@ -1774,13 +1774,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>69.3072484625774</v>
+        <v>69.5312500205936</v>
       </c>
       <c r="D27" t="n">
-        <v>60.0746837073576</v>
+        <v>58.4583456214024</v>
       </c>
       <c r="E27" t="n">
-        <v>79.8498036646627</v>
+        <v>80.419144035653</v>
       </c>
       <c r="F27" t="n">
         <v>1918</v>
@@ -1812,13 +1812,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>34.3193139703424</v>
+        <v>34.2719701225063</v>
       </c>
       <c r="D28" t="n">
-        <v>28.0937751713564</v>
+        <v>28.2234813661757</v>
       </c>
       <c r="E28" t="n">
-        <v>41.1056723626108</v>
+        <v>41.4323354176013</v>
       </c>
       <c r="F28" t="n">
         <v>1918</v>
@@ -1850,13 +1850,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>33.1806952180095</v>
+        <v>33.572485582711</v>
       </c>
       <c r="D29" t="n">
-        <v>27.4844080101617</v>
+        <v>27.5116654881472</v>
       </c>
       <c r="E29" t="n">
-        <v>39.829950872952</v>
+        <v>40.423954911705</v>
       </c>
       <c r="F29" t="n">
         <v>1918</v>
@@ -1888,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>45.7847151312131</v>
+        <v>45.9459455945932</v>
       </c>
       <c r="D30" t="n">
-        <v>38.325029734033</v>
+        <v>38.4114262911406</v>
       </c>
       <c r="E30" t="n">
-        <v>53.8642212244874</v>
+        <v>55.3368351999041</v>
       </c>
       <c r="F30" t="n">
         <v>1918</v>
@@ -1926,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>264.837527827788</v>
+        <v>264.478003890346</v>
       </c>
       <c r="D31" t="n">
-        <v>238.178168368408</v>
+        <v>235.756176918484</v>
       </c>
       <c r="E31" t="n">
-        <v>289.251643776067</v>
+        <v>297.131226892888</v>
       </c>
       <c r="F31" t="n">
         <v>1918</v>
@@ -1964,13 +1964,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>67.6480272021263</v>
+        <v>68.5345197669329</v>
       </c>
       <c r="D32" t="n">
-        <v>57.5296236361571</v>
+        <v>58.9273639969032</v>
       </c>
       <c r="E32" t="n">
-        <v>78.4303175493403</v>
+        <v>80.0568338446131</v>
       </c>
       <c r="F32" t="n">
         <v>1918</v>
@@ -2002,13 +2002,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>29.7920486802428</v>
+        <v>29.9020917249802</v>
       </c>
       <c r="D33" t="n">
-        <v>24.6376793382393</v>
+        <v>24.5841129960223</v>
       </c>
       <c r="E33" t="n">
-        <v>36.5608560729085</v>
+        <v>36.1619060745703</v>
       </c>
       <c r="F33" t="n">
         <v>1918</v>
@@ -2040,13 +2040,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>167.056412905154</v>
+        <v>166.931542307927</v>
       </c>
       <c r="D34" t="n">
-        <v>149.994535007212</v>
+        <v>148.698031843633</v>
       </c>
       <c r="E34" t="n">
-        <v>186.814364464189</v>
+        <v>190.651590808202</v>
       </c>
       <c r="F34" t="n">
         <v>1918</v>
@@ -2078,13 +2078,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>39.2670394109384</v>
+        <v>39.3618007962995</v>
       </c>
       <c r="D35" t="n">
-        <v>32.6748321396167</v>
+        <v>32.67741955384</v>
       </c>
       <c r="E35" t="n">
-        <v>46.7140923784151</v>
+        <v>46.7489247221647</v>
       </c>
       <c r="F35" t="n">
         <v>1918</v>
@@ -2116,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>133.356498373789</v>
+        <v>133.342509162738</v>
       </c>
       <c r="D36" t="n">
-        <v>118.528987914016</v>
+        <v>116.813632598301</v>
       </c>
       <c r="E36" t="n">
-        <v>150.272283141389</v>
+        <v>152.722383235073</v>
       </c>
       <c r="F36" t="n">
         <v>1918</v>
@@ -2154,13 +2154,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>36.6079919236943</v>
+        <v>36.732056718794</v>
       </c>
       <c r="D37" t="n">
-        <v>30.1054901445884</v>
+        <v>30.8929759619716</v>
       </c>
       <c r="E37" t="n">
-        <v>44.5275040601691</v>
+        <v>44.4557317096381</v>
       </c>
       <c r="F37" t="n">
         <v>1918</v>
@@ -2192,13 +2192,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>165.995811672443</v>
+        <v>165.803795890107</v>
       </c>
       <c r="D38" t="n">
-        <v>148.426744525198</v>
+        <v>145.193126474917</v>
       </c>
       <c r="E38" t="n">
-        <v>185.655230629463</v>
+        <v>188.880210357026</v>
       </c>
       <c r="F38" t="n">
         <v>1918</v>
@@ -2230,13 +2230,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>121.922432121755</v>
+        <v>121.66138265873</v>
       </c>
       <c r="D39" t="n">
-        <v>108.356074138589</v>
+        <v>107.075030402955</v>
       </c>
       <c r="E39" t="n">
-        <v>138.130592734439</v>
+        <v>139.608174320575</v>
       </c>
       <c r="F39" t="n">
         <v>1918</v>
@@ -2268,13 +2268,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>188.048082941339</v>
+        <v>189.065711268554</v>
       </c>
       <c r="D40" t="n">
-        <v>169.514320012315</v>
+        <v>166.685959560579</v>
       </c>
       <c r="E40" t="n">
-        <v>211.08625830881</v>
+        <v>213.688839371378</v>
       </c>
       <c r="F40" t="n">
         <v>1918</v>
@@ -2306,13 +2306,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>152.107167150042</v>
+        <v>152.949157395279</v>
       </c>
       <c r="D41" t="n">
-        <v>136.522771470984</v>
+        <v>136.292897192818</v>
       </c>
       <c r="E41" t="n">
-        <v>171.701935543213</v>
+        <v>174.18423055353</v>
       </c>
       <c r="F41" t="n">
         <v>1918</v>
@@ -2344,13 +2344,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>40.4666087409261</v>
+        <v>40.2528356061413</v>
       </c>
       <c r="D42" t="n">
-        <v>34.1314674482426</v>
+        <v>33.411804122951</v>
       </c>
       <c r="E42" t="n">
-        <v>47.8999471057797</v>
+        <v>48.1230483368339</v>
       </c>
       <c r="F42" t="n">
         <v>1918</v>
@@ -2382,13 +2382,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>28.9608789671012</v>
+        <v>28.994855324866</v>
       </c>
       <c r="D43" t="n">
-        <v>24.0831509361328</v>
+        <v>23.8778723429526</v>
       </c>
       <c r="E43" t="n">
-        <v>34.9966112060075</v>
+        <v>35.1675820985194</v>
       </c>
       <c r="F43" t="n">
         <v>1918</v>
@@ -2420,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>120.721594188314</v>
+        <v>120.924948574918</v>
       </c>
       <c r="D44" t="n">
-        <v>106.513777793105</v>
+        <v>105.63985346982</v>
       </c>
       <c r="E44" t="n">
-        <v>136.558859605096</v>
+        <v>138.874972042208</v>
       </c>
       <c r="F44" t="n">
         <v>1918</v>
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>38.1393206532003</v>
+        <v>38.2885260157277</v>
       </c>
       <c r="D45" t="n">
-        <v>31.9962723093056</v>
+        <v>32.0920313544649</v>
       </c>
       <c r="E45" t="n">
-        <v>45.2373780045785</v>
+        <v>46.0308748518781</v>
       </c>
       <c r="F45" t="n">
         <v>1918</v>
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>81.6042594840467</v>
+        <v>81.0159073473204</v>
       </c>
       <c r="D46" t="n">
-        <v>70.839967954018</v>
+        <v>70.0319916858459</v>
       </c>
       <c r="E46" t="n">
-        <v>93.019163833099</v>
+        <v>93.9930349826226</v>
       </c>
       <c r="F46" t="n">
         <v>1918</v>
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>107.772831679272</v>
+        <v>106.637957136497</v>
       </c>
       <c r="D47" t="n">
-        <v>94.5876248731048</v>
+        <v>92.5333330211539</v>
       </c>
       <c r="E47" t="n">
-        <v>121.341512254347</v>
+        <v>122.514145262938</v>
       </c>
       <c r="F47" t="n">
         <v>1918</v>
@@ -2572,13 +2572,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>84.5562962610786</v>
+        <v>85.026670749976</v>
       </c>
       <c r="D48" t="n">
-        <v>74.5581462375817</v>
+        <v>73.4336036942361</v>
       </c>
       <c r="E48" t="n">
-        <v>97.9461795460234</v>
+        <v>97.0367064972447</v>
       </c>
       <c r="F48" t="n">
         <v>1918</v>
@@ -2610,13 +2610,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>153.064060092311</v>
+        <v>152.611605950913</v>
       </c>
       <c r="D49" t="n">
-        <v>136.145912129151</v>
+        <v>133.300495870496</v>
       </c>
       <c r="E49" t="n">
-        <v>170.384493134857</v>
+        <v>172.952647236671</v>
       </c>
       <c r="F49" t="n">
         <v>1918</v>
@@ -2648,13 +2648,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>83.3585966884168</v>
+        <v>83.4273450405692</v>
       </c>
       <c r="D50" t="n">
-        <v>73.0689802525651</v>
+        <v>71.9318093328772</v>
       </c>
       <c r="E50" t="n">
-        <v>94.6876540754832</v>
+        <v>96.0007303331529</v>
       </c>
       <c r="F50" t="n">
         <v>1918</v>
@@ -2686,13 +2686,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>99.543745359457</v>
+        <v>100.29144221638</v>
       </c>
       <c r="D51" t="n">
-        <v>87.3270464323709</v>
+        <v>86.8808861446798</v>
       </c>
       <c r="E51" t="n">
-        <v>113.854044551571</v>
+        <v>114.435473590814</v>
       </c>
       <c r="F51" t="n">
         <v>1918</v>
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>110.270088478041</v>
+        <v>111.000758426168</v>
       </c>
       <c r="D52" t="n">
-        <v>97.7166231434399</v>
+        <v>96.7004677768543</v>
       </c>
       <c r="E52" t="n">
-        <v>125.281502115985</v>
+        <v>127.714128908835</v>
       </c>
       <c r="F52" t="n">
         <v>1918</v>
@@ -2762,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>42.8282933124832</v>
+        <v>42.9500930470414</v>
       </c>
       <c r="D53" t="n">
-        <v>35.8452016516922</v>
+        <v>35.6380099233805</v>
       </c>
       <c r="E53" t="n">
-        <v>50.7403079358526</v>
+        <v>51.0694056650536</v>
       </c>
       <c r="F53" t="n">
         <v>1918</v>
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>21.718570908017</v>
+        <v>21.6380190944391</v>
       </c>
       <c r="D54" t="n">
-        <v>17.7390212960584</v>
+        <v>17.4606911728787</v>
       </c>
       <c r="E54" t="n">
-        <v>26.4484317679758</v>
+        <v>27.1527095180886</v>
       </c>
       <c r="F54" t="n">
         <v>1918</v>
@@ -2838,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>273.194503579873</v>
+        <v>273.785681687778</v>
       </c>
       <c r="D55" t="n">
-        <v>246.793757912041</v>
+        <v>244.690506908602</v>
       </c>
       <c r="E55" t="n">
-        <v>302.02988711417</v>
+        <v>305.594419769685</v>
       </c>
       <c r="F55" t="n">
         <v>1918</v>
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>112.833065209356</v>
+        <v>112.616395312877</v>
       </c>
       <c r="D56" t="n">
-        <v>98.9143410302932</v>
+        <v>98.3828333731131</v>
       </c>
       <c r="E56" t="n">
-        <v>128.212503110218</v>
+        <v>131.087185666948</v>
       </c>
       <c r="F56" t="n">
         <v>1918</v>
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>252.02702166859</v>
+        <v>253.445926577077</v>
       </c>
       <c r="D57" t="n">
-        <v>228.295240059405</v>
+        <v>226.008372544407</v>
       </c>
       <c r="E57" t="n">
-        <v>278.580183465741</v>
+        <v>286.201031371457</v>
       </c>
       <c r="F57" t="n">
         <v>1918</v>
@@ -2952,13 +2952,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>336.486752066239</v>
+        <v>336.544028776206</v>
       </c>
       <c r="D58" t="n">
-        <v>305.633242902397</v>
+        <v>301.040450386916</v>
       </c>
       <c r="E58" t="n">
-        <v>371.316387411604</v>
+        <v>374.147601827718</v>
       </c>
       <c r="F58" t="n">
         <v>1918</v>
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>109.13817246749</v>
+        <v>108.943155726067</v>
       </c>
       <c r="D59" t="n">
-        <v>96.8036958954866</v>
+        <v>95.5841095460847</v>
       </c>
       <c r="E59" t="n">
-        <v>123.905365396938</v>
+        <v>125.397652587887</v>
       </c>
       <c r="F59" t="n">
         <v>1918</v>
@@ -3028,13 +3028,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>125.146616655156</v>
+        <v>125.643520023404</v>
       </c>
       <c r="D60" t="n">
-        <v>110.601640818909</v>
+        <v>109.49279834268</v>
       </c>
       <c r="E60" t="n">
-        <v>141.44981180854</v>
+        <v>143.628793517771</v>
       </c>
       <c r="F60" t="n">
         <v>1918</v>
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>48.145854587908</v>
+        <v>48.5004687175467</v>
       </c>
       <c r="D61" t="n">
-        <v>40.7488092070798</v>
+        <v>40.6244228564286</v>
       </c>
       <c r="E61" t="n">
-        <v>56.571199225463</v>
+        <v>58.1960909220581</v>
       </c>
       <c r="F61" t="n">
         <v>1918</v>
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>66.8190373122105</v>
+        <v>66.6750482033002</v>
       </c>
       <c r="D62" t="n">
-        <v>57.3247999274472</v>
+        <v>57.3235262961256</v>
       </c>
       <c r="E62" t="n">
-        <v>76.9065443410075</v>
+        <v>78.0826313688751</v>
       </c>
       <c r="F62" t="n">
         <v>1918</v>
@@ -3142,13 +3142,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>244.019428870495</v>
+        <v>244.303917503581</v>
       </c>
       <c r="D63" t="n">
-        <v>219.984178221505</v>
+        <v>217.947675280725</v>
       </c>
       <c r="E63" t="n">
-        <v>271.879536783397</v>
+        <v>272.648229918309</v>
       </c>
       <c r="F63" t="n">
         <v>1918</v>
@@ -3180,13 +3180,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>26.4180221103956</v>
+        <v>26.3707345303672</v>
       </c>
       <c r="D64" t="n">
-        <v>21.9428065296281</v>
+        <v>21.5020805189928</v>
       </c>
       <c r="E64" t="n">
-        <v>32.1624201168665</v>
+        <v>32.1899237803254</v>
       </c>
       <c r="F64" t="n">
         <v>1918</v>
@@ -3218,13 +3218,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>55.836797816063</v>
+        <v>55.8661791709206</v>
       </c>
       <c r="D65" t="n">
-        <v>47.3730245838261</v>
+        <v>47.266499237694</v>
       </c>
       <c r="E65" t="n">
-        <v>65.1316749539185</v>
+        <v>66.2439968447342</v>
       </c>
       <c r="F65" t="n">
         <v>1918</v>
@@ -3256,13 +3256,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>66.0011769265107</v>
+        <v>65.8880422913896</v>
       </c>
       <c r="D66" t="n">
-        <v>56.6988660127488</v>
+        <v>56.0336355238464</v>
       </c>
       <c r="E66" t="n">
-        <v>76.552724862309</v>
+        <v>77.5504060157495</v>
       </c>
       <c r="F66" t="n">
         <v>1918</v>
@@ -3294,13 +3294,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>73.8964765266423</v>
+        <v>73.9061510592718</v>
       </c>
       <c r="D67" t="n">
-        <v>63.5051718081769</v>
+        <v>63.0634229368471</v>
       </c>
       <c r="E67" t="n">
-        <v>85.3786881255182</v>
+        <v>85.7894927329937</v>
       </c>
       <c r="F67" t="n">
         <v>1918</v>
@@ -3332,13 +3332,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>89.9702596835039</v>
+        <v>90.2012539898421</v>
       </c>
       <c r="D68" t="n">
-        <v>78.8090912386013</v>
+        <v>78.8091781463816</v>
       </c>
       <c r="E68" t="n">
-        <v>103.490924063854</v>
+        <v>104.703104529266</v>
       </c>
       <c r="F68" t="n">
         <v>1918</v>
@@ -3370,13 +3370,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>75.8966023613221</v>
+        <v>75.6720721349278</v>
       </c>
       <c r="D69" t="n">
-        <v>65.7898437285808</v>
+        <v>65.4825116619044</v>
       </c>
       <c r="E69" t="n">
-        <v>87.5470615003553</v>
+        <v>88.5952497678824</v>
       </c>
       <c r="F69" t="n">
         <v>1918</v>
@@ -3408,13 +3408,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>103.078656121041</v>
+        <v>103.001390851543</v>
       </c>
       <c r="D70" t="n">
-        <v>90.30546259176</v>
+        <v>89.4468394571754</v>
       </c>
       <c r="E70" t="n">
-        <v>116.999348995596</v>
+        <v>118.958668769337</v>
       </c>
       <c r="F70" t="n">
         <v>1918</v>
@@ -3446,13 +3446,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>47.9846552162872</v>
+        <v>48.0143583268683</v>
       </c>
       <c r="D71" t="n">
-        <v>40.3927317722654</v>
+        <v>39.9350162597629</v>
       </c>
       <c r="E71" t="n">
-        <v>57.5816653202438</v>
+        <v>56.2141233536941</v>
       </c>
       <c r="F71" t="n">
         <v>1918</v>
@@ -3484,13 +3484,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>39.6164656474232</v>
+        <v>39.4527476547001</v>
       </c>
       <c r="D72" t="n">
-        <v>33.5012233888863</v>
+        <v>33.1345222184842</v>
       </c>
       <c r="E72" t="n">
-        <v>47.6746903391203</v>
+        <v>48.1811935003967</v>
       </c>
       <c r="F72" t="n">
         <v>1918</v>
@@ -3522,13 +3522,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>90.7198334162888</v>
+        <v>90.929854463726</v>
       </c>
       <c r="D73" t="n">
-        <v>78.9752106409232</v>
+        <v>79.4994351280503</v>
       </c>
       <c r="E73" t="n">
-        <v>105.056705553013</v>
+        <v>106.725835259576</v>
       </c>
       <c r="F73" t="n">
         <v>1918</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>200.617088309127</v>
+        <v>199.163535348381</v>
       </c>
       <c r="D74" t="n">
-        <v>179.796303409893</v>
+        <v>176.093155735404</v>
       </c>
       <c r="E74" t="n">
-        <v>222.45482848787</v>
+        <v>223.849502615942</v>
       </c>
       <c r="F74" t="n">
         <v>1918</v>
@@ -3598,13 +3598,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>35.7339504197341</v>
+        <v>35.6765748056502</v>
       </c>
       <c r="D75" t="n">
-        <v>29.752659220947</v>
+        <v>29.5856920343045</v>
       </c>
       <c r="E75" t="n">
-        <v>42.0227833005286</v>
+        <v>42.7626541724509</v>
       </c>
       <c r="F75" t="n">
         <v>1918</v>
@@ -3636,13 +3636,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>14.9752631628089</v>
+        <v>14.9968095632155</v>
       </c>
       <c r="D76" t="n">
-        <v>11.7864773504209</v>
+        <v>11.6727525907872</v>
       </c>
       <c r="E76" t="n">
-        <v>19.3348955236435</v>
+        <v>18.9411226940992</v>
       </c>
       <c r="F76" t="n">
         <v>1918</v>
@@ -3674,13 +3674,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>151.575531265631</v>
+        <v>152.696101564043</v>
       </c>
       <c r="D77" t="n">
-        <v>135.086463815422</v>
+        <v>134.53591118796</v>
       </c>
       <c r="E77" t="n">
-        <v>171.03754224817</v>
+        <v>171.862527468653</v>
       </c>
       <c r="F77" t="n">
         <v>1918</v>
@@ -3712,13 +3712,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>41.4525835617183</v>
+        <v>41.5103215825139</v>
       </c>
       <c r="D78" t="n">
-        <v>35.0279851033194</v>
+        <v>34.7856418714278</v>
       </c>
       <c r="E78" t="n">
-        <v>50.4037419323771</v>
+        <v>49.8246451003932</v>
       </c>
       <c r="F78" t="n">
         <v>1918</v>
@@ -3750,13 +3750,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>130.671567027354</v>
+        <v>130.77582879479</v>
       </c>
       <c r="D79" t="n">
-        <v>116.816016738873</v>
+        <v>114.515647282136</v>
       </c>
       <c r="E79" t="n">
-        <v>147.312936243343</v>
+        <v>149.312782133714</v>
       </c>
       <c r="F79" t="n">
         <v>1918</v>
@@ -3788,13 +3788,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>79.208845237115</v>
+        <v>80.1123617409673</v>
       </c>
       <c r="D80" t="n">
-        <v>69.147899667219</v>
+        <v>69.0872622165776</v>
       </c>
       <c r="E80" t="n">
-        <v>90.3405033239619</v>
+        <v>91.9685813110477</v>
       </c>
       <c r="F80" t="n">
         <v>1918</v>
@@ -3826,13 +3826,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>177.035908284885</v>
+        <v>176.453559842745</v>
       </c>
       <c r="D81" t="n">
-        <v>158.859056541199</v>
+        <v>155.809241540227</v>
       </c>
       <c r="E81" t="n">
-        <v>196.857849574087</v>
+        <v>199.044833568433</v>
       </c>
       <c r="F81" t="n">
         <v>1918</v>
@@ -3864,13 +3864,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>90.5493701169068</v>
+        <v>90.4071731966444</v>
       </c>
       <c r="D82" t="n">
-        <v>79.0306691419386</v>
+        <v>78.4601416809485</v>
       </c>
       <c r="E82" t="n">
-        <v>102.696501137893</v>
+        <v>104.680428436475</v>
       </c>
       <c r="F82" t="n">
         <v>1918</v>
@@ -3902,13 +3902,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>457.688736670756</v>
+        <v>458.034863310116</v>
       </c>
       <c r="D83" t="n">
-        <v>418.175714710343</v>
+        <v>412.671246760272</v>
       </c>
       <c r="E83" t="n">
-        <v>501.073390610531</v>
+        <v>509.181984915129</v>
       </c>
       <c r="F83" t="n">
         <v>1918</v>
@@ -3940,13 +3940,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>110.260086881988</v>
+        <v>110.066788083458</v>
       </c>
       <c r="D84" t="n">
-        <v>96.7027872882017</v>
+        <v>95.236631218069</v>
       </c>
       <c r="E84" t="n">
-        <v>125.769005247038</v>
+        <v>127.471926002009</v>
       </c>
       <c r="F84" t="n">
         <v>1918</v>
@@ -3978,13 +3978,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>100.31366629633</v>
+        <v>100.784508864476</v>
       </c>
       <c r="D85" t="n">
-        <v>88.5442389831695</v>
+        <v>87.1905036650798</v>
       </c>
       <c r="E85" t="n">
-        <v>115.760318839375</v>
+        <v>115.685970501787</v>
       </c>
       <c r="F85" t="n">
         <v>1918</v>
@@ -4016,13 +4016,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>126.858197441601</v>
+        <v>126.237523341851</v>
       </c>
       <c r="D86" t="n">
-        <v>112.819846238319</v>
+        <v>110.257047239908</v>
       </c>
       <c r="E86" t="n">
-        <v>142.828975520048</v>
+        <v>142.594851131988</v>
       </c>
       <c r="F86" t="n">
         <v>1918</v>
@@ -4054,13 +4054,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>257.115904022297</v>
+        <v>256.895306287674</v>
       </c>
       <c r="D87" t="n">
-        <v>233.602636049772</v>
+        <v>229.492796038776</v>
       </c>
       <c r="E87" t="n">
-        <v>286.902505711</v>
+        <v>289.239736336355</v>
       </c>
       <c r="F87" t="n">
         <v>1918</v>
@@ -4092,13 +4092,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>34.0265368516278</v>
+        <v>33.6761168897776</v>
       </c>
       <c r="D88" t="n">
-        <v>28.3491735345132</v>
+        <v>28.3276571797711</v>
       </c>
       <c r="E88" t="n">
-        <v>41.04994179409</v>
+        <v>40.8430886198917</v>
       </c>
       <c r="F88" t="n">
         <v>1918</v>
@@ -4130,13 +4130,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>68.9322077636937</v>
+        <v>70.3195162702086</v>
       </c>
       <c r="D89" t="n">
-        <v>58.3901813111905</v>
+        <v>60.7201990148114</v>
       </c>
       <c r="E89" t="n">
-        <v>80.3180085069831</v>
+        <v>81.9487925101144</v>
       </c>
       <c r="F89" t="n">
         <v>1918</v>
@@ -4168,13 +4168,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>122.160960367848</v>
+        <v>122.390768483263</v>
       </c>
       <c r="D90" t="n">
-        <v>107.799343330694</v>
+        <v>107.353933934399</v>
       </c>
       <c r="E90" t="n">
-        <v>137.918767864569</v>
+        <v>139.186776940939</v>
       </c>
       <c r="F90" t="n">
         <v>1918</v>
@@ -4206,13 +4206,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>78.8739931451052</v>
+        <v>78.3323153885313</v>
       </c>
       <c r="D91" t="n">
-        <v>68.2286138950556</v>
+        <v>67.820407160427</v>
       </c>
       <c r="E91" t="n">
-        <v>90.7728327220154</v>
+        <v>91.3145633639151</v>
       </c>
       <c r="F91" t="n">
         <v>1918</v>
@@ -4244,13 +4244,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>246.810591510231</v>
+        <v>247.104788460704</v>
       </c>
       <c r="D92" t="n">
-        <v>222.025660896918</v>
+        <v>221.137725320822</v>
       </c>
       <c r="E92" t="n">
-        <v>271.592519420652</v>
+        <v>277.548519764785</v>
       </c>
       <c r="F92" t="n">
         <v>1918</v>
@@ -4282,13 +4282,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>180.272975885107</v>
+        <v>180.290947075984</v>
       </c>
       <c r="D93" t="n">
-        <v>160.069732330764</v>
+        <v>160.202850658164</v>
       </c>
       <c r="E93" t="n">
-        <v>202.666091795836</v>
+        <v>203.480666240906</v>
       </c>
       <c r="F93" t="n">
         <v>1918</v>
@@ -4320,13 +4320,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>64.1965941300517</v>
+        <v>64.5740503979191</v>
       </c>
       <c r="D94" t="n">
-        <v>55.6275075453112</v>
+        <v>55.2349694331613</v>
       </c>
       <c r="E94" t="n">
-        <v>74.8511383881778</v>
+        <v>76.0805583773252</v>
       </c>
       <c r="F94" t="n">
         <v>1918</v>
@@ -4358,13 +4358,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>7.32320349407147</v>
+        <v>7.24401450768416</v>
       </c>
       <c r="D95" t="n">
-        <v>5.56487914712678</v>
+        <v>5.42382117242919</v>
       </c>
       <c r="E95" t="n">
-        <v>9.48642674387919</v>
+        <v>9.51019871537315</v>
       </c>
       <c r="F95" t="n">
         <v>1918</v>
@@ -4396,13 +4396,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>129.668801633284</v>
+        <v>129.458698488046</v>
       </c>
       <c r="D96" t="n">
-        <v>114.983245017794</v>
+        <v>113.898573287917</v>
       </c>
       <c r="E96" t="n">
-        <v>146.21861123693</v>
+        <v>147.85125676453</v>
       </c>
       <c r="F96" t="n">
         <v>1918</v>
@@ -4434,13 +4434,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>148.168252957974</v>
+        <v>148.766920561905</v>
       </c>
       <c r="D97" t="n">
-        <v>130.99080639646</v>
+        <v>131.092963196545</v>
       </c>
       <c r="E97" t="n">
-        <v>167.550407073177</v>
+        <v>169.829329938825</v>
       </c>
       <c r="F97" t="n">
         <v>1918</v>
@@ -4472,13 +4472,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>153.965442857937</v>
+        <v>154.635404335203</v>
       </c>
       <c r="D98" t="n">
-        <v>135.661317498845</v>
+        <v>136.419470360168</v>
       </c>
       <c r="E98" t="n">
-        <v>173.47229413163</v>
+        <v>174.133268861137</v>
       </c>
       <c r="F98" t="n">
         <v>1918</v>
@@ -4510,13 +4510,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>66.1242332790166</v>
+        <v>65.9023596966942</v>
       </c>
       <c r="D99" t="n">
-        <v>56.8165639628475</v>
+        <v>55.9982471209544</v>
       </c>
       <c r="E99" t="n">
-        <v>76.6196116024741</v>
+        <v>77.0968385654988</v>
       </c>
       <c r="F99" t="n">
         <v>1918</v>
@@ -4548,13 +4548,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>85.294145057881</v>
+        <v>85.8862561061678</v>
       </c>
       <c r="D100" t="n">
-        <v>74.0520196638707</v>
+        <v>74.1033772885449</v>
       </c>
       <c r="E100" t="n">
-        <v>98.5361279328499</v>
+        <v>99.6465328885994</v>
       </c>
       <c r="F100" t="n">
         <v>1918</v>
@@ -4586,13 +4586,13 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>50.6078153573629</v>
+        <v>50.503331865148</v>
       </c>
       <c r="D101" t="n">
-        <v>42.3156437236912</v>
+        <v>42.4134751084558</v>
       </c>
       <c r="E101" t="n">
-        <v>59.0799855015671</v>
+        <v>59.5455673035795</v>
       </c>
       <c r="F101" t="n">
         <v>1918</v>
@@ -4624,13 +4624,13 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>94.275332976175</v>
+        <v>94.2365262635188</v>
       </c>
       <c r="D102" t="n">
-        <v>82.3601918932188</v>
+        <v>81.6891140872604</v>
       </c>
       <c r="E102" t="n">
-        <v>109.175454923792</v>
+        <v>109.489272179643</v>
       </c>
       <c r="F102" t="n">
         <v>1918</v>
@@ -4662,13 +4662,13 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>106.636367469711</v>
+        <v>106.646699572885</v>
       </c>
       <c r="D103" t="n">
-        <v>92.6068574181527</v>
+        <v>92.0947309959007</v>
       </c>
       <c r="E103" t="n">
-        <v>120.495792844111</v>
+        <v>121.400003353917</v>
       </c>
       <c r="F103" t="n">
         <v>1918</v>
@@ -4700,13 +4700,13 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>60.8086773581256</v>
+        <v>61.5927500113656</v>
       </c>
       <c r="D104" t="n">
-        <v>52.0487293622095</v>
+        <v>52.8393857334414</v>
       </c>
       <c r="E104" t="n">
-        <v>70.2500796912242</v>
+        <v>72.0540419361796</v>
       </c>
       <c r="F104" t="n">
         <v>1918</v>
@@ -4738,13 +4738,13 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>146.717016083232</v>
+        <v>146.836157344752</v>
       </c>
       <c r="D105" t="n">
-        <v>129.900391879711</v>
+        <v>128.528737116751</v>
       </c>
       <c r="E105" t="n">
-        <v>165.293811399941</v>
+        <v>167.430934798797</v>
       </c>
       <c r="F105" t="n">
         <v>1918</v>
@@ -4776,13 +4776,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>633.76549702826</v>
+        <v>634.724353782816</v>
       </c>
       <c r="D106" t="n">
-        <v>580.749963100357</v>
+        <v>570.770116830506</v>
       </c>
       <c r="E106" t="n">
-        <v>695.168424858762</v>
+        <v>698.067150510238</v>
       </c>
       <c r="F106" t="n">
         <v>1918</v>
@@ -4814,13 +4814,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>51.4824925768997</v>
+        <v>51.7559463200206</v>
       </c>
       <c r="D107" t="n">
-        <v>43.4819155215125</v>
+        <v>43.4248388114919</v>
       </c>
       <c r="E107" t="n">
-        <v>60.1017887915243</v>
+        <v>60.9405191089815</v>
       </c>
       <c r="F107" t="n">
         <v>1918</v>
@@ -4852,13 +4852,13 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>95.7307728007761</v>
+        <v>95.5949777306562</v>
       </c>
       <c r="D108" t="n">
-        <v>83.0202821313729</v>
+        <v>82.8494080978952</v>
       </c>
       <c r="E108" t="n">
-        <v>109.572488217173</v>
+        <v>109.588462751808</v>
       </c>
       <c r="F108" t="n">
         <v>1918</v>
@@ -4890,13 +4890,13 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>66.5279324057344</v>
+        <v>66.9313966081826</v>
       </c>
       <c r="D109" t="n">
-        <v>56.4334233938354</v>
+        <v>56.929582982309</v>
       </c>
       <c r="E109" t="n">
-        <v>77.0450327825796</v>
+        <v>78.6457414204369</v>
       </c>
       <c r="F109" t="n">
         <v>1918</v>
@@ -4928,13 +4928,13 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>93.1575961898489</v>
+        <v>93.1465108715924</v>
       </c>
       <c r="D110" t="n">
-        <v>81.3433020757475</v>
+        <v>80.5288044224456</v>
       </c>
       <c r="E110" t="n">
-        <v>106.650991911117</v>
+        <v>106.266251074427</v>
       </c>
       <c r="F110" t="n">
         <v>1918</v>
@@ -4966,13 +4966,13 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>160.159583872362</v>
+        <v>161.087651545124</v>
       </c>
       <c r="D111" t="n">
-        <v>143.510857659828</v>
+        <v>142.483958580319</v>
       </c>
       <c r="E111" t="n">
-        <v>180.260545591288</v>
+        <v>181.288726875967</v>
       </c>
       <c r="F111" t="n">
         <v>1918</v>
@@ -5004,13 +5004,13 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>23.9189381882489</v>
+        <v>24.024320531751</v>
       </c>
       <c r="D112" t="n">
-        <v>19.4817565060849</v>
+        <v>19.5282363660385</v>
       </c>
       <c r="E112" t="n">
-        <v>30.2502353512734</v>
+        <v>29.6050751875472</v>
       </c>
       <c r="F112" t="n">
         <v>1918</v>
@@ -5042,13 +5042,13 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>107.328459131731</v>
+        <v>107.003448986948</v>
       </c>
       <c r="D113" t="n">
-        <v>93.6188719817285</v>
+        <v>93.2842836511364</v>
       </c>
       <c r="E113" t="n">
-        <v>121.565751498029</v>
+        <v>123.29943311046</v>
       </c>
       <c r="F113" t="n">
         <v>1918</v>
@@ -5080,13 +5080,13 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>100.753807620834</v>
+        <v>100.846659155877</v>
       </c>
       <c r="D114" t="n">
-        <v>88.7440559650025</v>
+        <v>87.7587580910614</v>
       </c>
       <c r="E114" t="n">
-        <v>114.762326010706</v>
+        <v>114.826963874523</v>
       </c>
       <c r="F114" t="n">
         <v>1918</v>
@@ -5118,13 +5118,13 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>154.827358342809</v>
+        <v>154.030650185271</v>
       </c>
       <c r="D115" t="n">
-        <v>138.909074754479</v>
+        <v>136.606395497166</v>
       </c>
       <c r="E115" t="n">
-        <v>173.305611654506</v>
+        <v>174.391238863239</v>
       </c>
       <c r="F115" t="n">
         <v>1918</v>
@@ -5156,13 +5156,13 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>69.7612946380421</v>
+        <v>69.2988950154904</v>
       </c>
       <c r="D116" t="n">
-        <v>59.9391904872686</v>
+        <v>59.7703251526223</v>
       </c>
       <c r="E116" t="n">
-        <v>79.9249211735692</v>
+        <v>80.412013721494</v>
       </c>
       <c r="F116" t="n">
         <v>1918</v>
@@ -5194,13 +5194,13 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>68.8654854891069</v>
+        <v>68.9175340428109</v>
       </c>
       <c r="D117" t="n">
-        <v>59.4377983113187</v>
+        <v>59.1882647884845</v>
       </c>
       <c r="E117" t="n">
-        <v>79.0937836199578</v>
+        <v>79.549743312729</v>
       </c>
       <c r="F117" t="n">
         <v>1918</v>
@@ -5232,13 +5232,13 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>32.7026429923421</v>
+        <v>32.2425729182143</v>
       </c>
       <c r="D118" t="n">
-        <v>27.0356706674103</v>
+        <v>26.4436409887624</v>
       </c>
       <c r="E118" t="n">
-        <v>39.1176098703935</v>
+        <v>38.8693482843886</v>
       </c>
       <c r="F118" t="n">
         <v>1918</v>
@@ -5270,13 +5270,13 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>177.09373987298</v>
+        <v>177.154187204086</v>
       </c>
       <c r="D119" t="n">
-        <v>159.68589764731</v>
+        <v>158.754612747108</v>
       </c>
       <c r="E119" t="n">
-        <v>196.73665873334</v>
+        <v>200.454335891613</v>
       </c>
       <c r="F119" t="n">
         <v>1918</v>
@@ -5308,13 +5308,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>61.1195948904509</v>
+        <v>61.2288609201758</v>
       </c>
       <c r="D120" t="n">
-        <v>52.6831329154574</v>
+        <v>52.6531052031091</v>
       </c>
       <c r="E120" t="n">
-        <v>71.1837057659617</v>
+        <v>71.2900990141384</v>
       </c>
       <c r="F120" t="n">
         <v>1918</v>
@@ -5346,13 +5346,13 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>98.7560552692659</v>
+        <v>98.0496564343879</v>
       </c>
       <c r="D121" t="n">
-        <v>86.6673263066393</v>
+        <v>85.4411037443306</v>
       </c>
       <c r="E121" t="n">
-        <v>112.838272761066</v>
+        <v>113.540845400508</v>
       </c>
       <c r="F121" t="n">
         <v>1918</v>
@@ -5384,13 +5384,13 @@
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>192.72758254556</v>
+        <v>193.668587407766</v>
       </c>
       <c r="D122" t="n">
-        <v>172.70231582139</v>
+        <v>172.111802930134</v>
       </c>
       <c r="E122" t="n">
-        <v>213.749212943865</v>
+        <v>216.956708922602</v>
       </c>
       <c r="F122" t="n">
         <v>1918</v>
@@ -5422,13 +5422,13 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>162.249308636017</v>
+        <v>162.234728760899</v>
       </c>
       <c r="D123" t="n">
-        <v>143.711146533348</v>
+        <v>142.01186602919</v>
       </c>
       <c r="E123" t="n">
-        <v>182.886134087248</v>
+        <v>183.019899984707</v>
       </c>
       <c r="F123" t="n">
         <v>1918</v>
@@ -5460,13 +5460,13 @@
         <v>123</v>
       </c>
       <c r="C124" t="n">
-        <v>262.03791942789</v>
+        <v>261.581789804765</v>
       </c>
       <c r="D124" t="n">
-        <v>235.547882662025</v>
+        <v>234.069141899251</v>
       </c>
       <c r="E124" t="n">
-        <v>288.435436206307</v>
+        <v>295.24807988717</v>
       </c>
       <c r="F124" t="n">
         <v>1918</v>
@@ -5498,13 +5498,13 @@
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>263.044220889045</v>
+        <v>262.114654003983</v>
       </c>
       <c r="D125" t="n">
-        <v>236.940428679081</v>
+        <v>234.777453374077</v>
       </c>
       <c r="E125" t="n">
-        <v>288.525817630193</v>
+        <v>291.125696298747</v>
       </c>
       <c r="F125" t="n">
         <v>1918</v>
@@ -5536,13 +5536,13 @@
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>553.844910621381</v>
+        <v>556.563143170936</v>
       </c>
       <c r="D126" t="n">
-        <v>509.747771716394</v>
+        <v>500.807558911462</v>
       </c>
       <c r="E126" t="n">
-        <v>607.320337693513</v>
+        <v>617.260883916465</v>
       </c>
       <c r="F126" t="n">
         <v>1918</v>
@@ -5574,13 +5574,13 @@
         <v>126</v>
       </c>
       <c r="C127" t="n">
-        <v>221.03403308891</v>
+        <v>220.927188427214</v>
       </c>
       <c r="D127" t="n">
-        <v>200.681489248221</v>
+        <v>196.881136182774</v>
       </c>
       <c r="E127" t="n">
-        <v>246.761165217387</v>
+        <v>249.229617048692</v>
       </c>
       <c r="F127" t="n">
         <v>1918</v>
@@ -5612,13 +5612,13 @@
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>79.4012293850055</v>
+        <v>79.686414558958</v>
       </c>
       <c r="D128" t="n">
-        <v>69.2812155058948</v>
+        <v>68.1571993775936</v>
       </c>
       <c r="E128" t="n">
-        <v>91.5212933241651</v>
+        <v>92.2567394136754</v>
       </c>
       <c r="F128" t="n">
         <v>1918</v>
@@ -5650,13 +5650,13 @@
         <v>128</v>
       </c>
       <c r="C129" t="n">
-        <v>56.2199185987495</v>
+        <v>56.8555951105816</v>
       </c>
       <c r="D129" t="n">
-        <v>47.3607436872817</v>
+        <v>48.1852692869754</v>
       </c>
       <c r="E129" t="n">
-        <v>66.4301913272897</v>
+        <v>67.6849520782981</v>
       </c>
       <c r="F129" t="n">
         <v>1918</v>
@@ -5688,13 +5688,13 @@
         <v>129</v>
       </c>
       <c r="C130" t="n">
-        <v>65.8032695106887</v>
+        <v>66.0087529706964</v>
       </c>
       <c r="D130" t="n">
-        <v>56.6592865716461</v>
+        <v>56.3817453197014</v>
       </c>
       <c r="E130" t="n">
-        <v>76.97742279993</v>
+        <v>77.7799512753438</v>
       </c>
       <c r="F130" t="n">
         <v>1918</v>
@@ -5726,13 +5726,13 @@
         <v>130</v>
       </c>
       <c r="C131" t="n">
-        <v>75.6275466416315</v>
+        <v>77.0822211979278</v>
       </c>
       <c r="D131" t="n">
-        <v>64.8528225359518</v>
+        <v>66.1092772101415</v>
       </c>
       <c r="E131" t="n">
-        <v>87.666308429933</v>
+        <v>89.6015524444283</v>
       </c>
       <c r="F131" t="n">
         <v>1918</v>
@@ -5764,13 +5764,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>41.9111857267736</v>
+        <v>0.0182290970046833</v>
       </c>
       <c r="D132" t="n">
-        <v>17.0074371240084</v>
+        <v>0.000026548037246676</v>
       </c>
       <c r="E132" t="n">
-        <v>51.0750444327661</v>
+        <v>48.3495569551335</v>
       </c>
       <c r="F132" t="n">
         <v>1919</v>
@@ -5802,13 +5802,13 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>25.1576678835338</v>
+        <v>24.8369144162367</v>
       </c>
       <c r="D133" t="n">
-        <v>19.5857245123962</v>
+        <v>19.7299877089011</v>
       </c>
       <c r="E133" t="n">
-        <v>31.3921152396833</v>
+        <v>30.7832801785172</v>
       </c>
       <c r="F133" t="n">
         <v>1919</v>
@@ -5840,13 +5840,13 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>87.7575567874591</v>
+        <v>87.4898273592237</v>
       </c>
       <c r="D134" t="n">
-        <v>75.2509633759378</v>
+        <v>74.3289982962296</v>
       </c>
       <c r="E134" t="n">
-        <v>101.817429041007</v>
+        <v>100.792018603265</v>
       </c>
       <c r="F134" t="n">
         <v>1919</v>
@@ -5878,13 +5878,13 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>600.926392775004</v>
+        <v>600.82520033729</v>
       </c>
       <c r="D135" t="n">
-        <v>555.64498765306</v>
+        <v>548.514804534029</v>
       </c>
       <c r="E135" t="n">
-        <v>654.945227176917</v>
+        <v>662.342519898168</v>
       </c>
       <c r="F135" t="n">
         <v>1919</v>
@@ -5916,13 +5916,13 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>90.7684764115586</v>
+        <v>91.0899011543421</v>
       </c>
       <c r="D136" t="n">
-        <v>78.1484724144978</v>
+        <v>77.1971406938702</v>
       </c>
       <c r="E136" t="n">
-        <v>104.595977120619</v>
+        <v>106.12625988415</v>
       </c>
       <c r="F136" t="n">
         <v>1919</v>
@@ -5954,13 +5954,13 @@
         <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>407.534490513807</v>
+        <v>407.966041354166</v>
       </c>
       <c r="D137" t="n">
-        <v>369.688370229489</v>
+        <v>366.634491078715</v>
       </c>
       <c r="E137" t="n">
-        <v>448.444771656991</v>
+        <v>454.79793561012</v>
       </c>
       <c r="F137" t="n">
         <v>1919</v>
@@ -5992,13 +5992,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>122.588743939219</v>
+        <v>122.881248296495</v>
       </c>
       <c r="D138" t="n">
-        <v>106.458169622601</v>
+        <v>106.376935931039</v>
       </c>
       <c r="E138" t="n">
-        <v>140.17607357419</v>
+        <v>142.421587417769</v>
       </c>
       <c r="F138" t="n">
         <v>1919</v>
@@ -6030,13 +6030,13 @@
         <v>8</v>
       </c>
       <c r="C139" t="n">
-        <v>57.6195404039102</v>
+        <v>57.4800840350078</v>
       </c>
       <c r="D139" t="n">
-        <v>48.0665329366807</v>
+        <v>48.2264335301346</v>
       </c>
       <c r="E139" t="n">
-        <v>68.1393653007563</v>
+        <v>67.8020647522983</v>
       </c>
       <c r="F139" t="n">
         <v>1919</v>
@@ -6068,13 +6068,13 @@
         <v>9</v>
       </c>
       <c r="C140" t="n">
-        <v>100.492165941874</v>
+        <v>100.339241656822</v>
       </c>
       <c r="D140" t="n">
-        <v>86.8691016222364</v>
+        <v>86.9451966123249</v>
       </c>
       <c r="E140" t="n">
-        <v>115.986666854722</v>
+        <v>116.279593300776</v>
       </c>
       <c r="F140" t="n">
         <v>1919</v>
@@ -6106,13 +6106,13 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>44.6491036348783</v>
+        <v>44.6968715960809</v>
       </c>
       <c r="D141" t="n">
-        <v>37.0590692453016</v>
+        <v>36.8870117651021</v>
       </c>
       <c r="E141" t="n">
-        <v>54.2480304055667</v>
+        <v>54.3540681066304</v>
       </c>
       <c r="F141" t="n">
         <v>1919</v>
@@ -6144,13 +6144,13 @@
         <v>11</v>
       </c>
       <c r="C142" t="n">
-        <v>49.2140665408903</v>
+        <v>49.3043523221934</v>
       </c>
       <c r="D142" t="n">
-        <v>40.7300287783583</v>
+        <v>40.710797522173</v>
       </c>
       <c r="E142" t="n">
-        <v>59.019837126094</v>
+        <v>59.7561945953943</v>
       </c>
       <c r="F142" t="n">
         <v>1919</v>
@@ -6182,13 +6182,13 @@
         <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>93.2881019812196</v>
+        <v>92.7902464068682</v>
       </c>
       <c r="D143" t="n">
-        <v>80.7939458932814</v>
+        <v>79.7922462202116</v>
       </c>
       <c r="E143" t="n">
-        <v>106.44484685294</v>
+        <v>107.076795165218</v>
       </c>
       <c r="F143" t="n">
         <v>1919</v>
@@ -6220,13 +6220,13 @@
         <v>13</v>
       </c>
       <c r="C144" t="n">
-        <v>69.1771192616463</v>
+        <v>69.1155468580645</v>
       </c>
       <c r="D144" t="n">
-        <v>58.654758631576</v>
+        <v>57.7502473104515</v>
       </c>
       <c r="E144" t="n">
-        <v>81.7254332265656</v>
+        <v>80.6391993809032</v>
       </c>
       <c r="F144" t="n">
         <v>1919</v>
@@ -6258,13 +6258,13 @@
         <v>14</v>
       </c>
       <c r="C145" t="n">
-        <v>56.1901764161743</v>
+        <v>56.1707560522796</v>
       </c>
       <c r="D145" t="n">
-        <v>46.8829015676695</v>
+        <v>47.6603953041234</v>
       </c>
       <c r="E145" t="n">
-        <v>66.344662146381</v>
+        <v>67.3594992553571</v>
       </c>
       <c r="F145" t="n">
         <v>1919</v>
@@ -6296,13 +6296,13 @@
         <v>15</v>
       </c>
       <c r="C146" t="n">
-        <v>92.6594896664006</v>
+        <v>92.4148751194815</v>
       </c>
       <c r="D146" t="n">
-        <v>78.6930058495816</v>
+        <v>79.6288152103097</v>
       </c>
       <c r="E146" t="n">
-        <v>107.792728070757</v>
+        <v>107.487297405756</v>
       </c>
       <c r="F146" t="n">
         <v>1919</v>
@@ -6334,13 +6334,13 @@
         <v>16</v>
       </c>
       <c r="C147" t="n">
-        <v>195.310772500641</v>
+        <v>194.926756992221</v>
       </c>
       <c r="D147" t="n">
-        <v>173.949034833023</v>
+        <v>171.441493504788</v>
       </c>
       <c r="E147" t="n">
-        <v>218.393981098063</v>
+        <v>222.428206192339</v>
       </c>
       <c r="F147" t="n">
         <v>1919</v>
@@ -6372,13 +6372,13 @@
         <v>17</v>
       </c>
       <c r="C148" t="n">
-        <v>68.6898367129402</v>
+        <v>68.7416748600005</v>
       </c>
       <c r="D148" t="n">
-        <v>56.8736237600311</v>
+        <v>57.8474332550685</v>
       </c>
       <c r="E148" t="n">
-        <v>80.4686240749957</v>
+        <v>81.2677640536544</v>
       </c>
       <c r="F148" t="n">
         <v>1919</v>
@@ -6410,13 +6410,13 @@
         <v>18</v>
       </c>
       <c r="C149" t="n">
-        <v>52.1448150916821</v>
+        <v>51.937666016296</v>
       </c>
       <c r="D149" t="n">
-        <v>43.182106809628</v>
+        <v>42.9275112355777</v>
       </c>
       <c r="E149" t="n">
-        <v>61.9661532816777</v>
+        <v>61.7455774085638</v>
       </c>
       <c r="F149" t="n">
         <v>1919</v>
@@ -6448,13 +6448,13 @@
         <v>19</v>
       </c>
       <c r="C150" t="n">
-        <v>97.9478969221853</v>
+        <v>97.1799542984276</v>
       </c>
       <c r="D150" t="n">
-        <v>85.291414190211</v>
+        <v>83.1814175350251</v>
       </c>
       <c r="E150" t="n">
-        <v>112.47067182936</v>
+        <v>113.525299523724</v>
       </c>
       <c r="F150" t="n">
         <v>1919</v>
@@ -6486,13 +6486,13 @@
         <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>72.5581708375211</v>
+        <v>72.7025025664332</v>
       </c>
       <c r="D151" t="n">
-        <v>61.4468778983133</v>
+        <v>61.1092559937703</v>
       </c>
       <c r="E151" t="n">
-        <v>85.9544569266222</v>
+        <v>84.515441596209</v>
       </c>
       <c r="F151" t="n">
         <v>1919</v>
@@ -6524,13 +6524,13 @@
         <v>21</v>
       </c>
       <c r="C152" t="n">
-        <v>73.7140119325635</v>
+        <v>73.6178408824138</v>
       </c>
       <c r="D152" t="n">
-        <v>63.0016757314434</v>
+        <v>62.5872500687015</v>
       </c>
       <c r="E152" t="n">
-        <v>86.2000273043512</v>
+        <v>87.3343463913007</v>
       </c>
       <c r="F152" t="n">
         <v>1919</v>
@@ -6562,13 +6562,13 @@
         <v>22</v>
       </c>
       <c r="C153" t="n">
-        <v>95.2178643409395</v>
+        <v>95.2168059400196</v>
       </c>
       <c r="D153" t="n">
-        <v>81.9702815898551</v>
+        <v>82.4266310964193</v>
       </c>
       <c r="E153" t="n">
-        <v>109.688712801702</v>
+        <v>110.578378537595</v>
       </c>
       <c r="F153" t="n">
         <v>1919</v>
@@ -6600,13 +6600,13 @@
         <v>23</v>
       </c>
       <c r="C154" t="n">
-        <v>114.516304534867</v>
+        <v>114.763682981036</v>
       </c>
       <c r="D154" t="n">
-        <v>100.632792487532</v>
+        <v>98.6559355004069</v>
       </c>
       <c r="E154" t="n">
-        <v>130.511894291105</v>
+        <v>133.599744225121</v>
       </c>
       <c r="F154" t="n">
         <v>1919</v>
@@ -6638,13 +6638,13 @@
         <v>24</v>
       </c>
       <c r="C155" t="n">
-        <v>80.099060662258</v>
+        <v>79.997689592124</v>
       </c>
       <c r="D155" t="n">
-        <v>68.248621368095</v>
+        <v>68.2803706685527</v>
       </c>
       <c r="E155" t="n">
-        <v>92.9175775706406</v>
+        <v>93.3912677923771</v>
       </c>
       <c r="F155" t="n">
         <v>1919</v>
@@ -6676,13 +6676,13 @@
         <v>25</v>
       </c>
       <c r="C156" t="n">
-        <v>62.2975955621526</v>
+        <v>62.6115856446809</v>
       </c>
       <c r="D156" t="n">
-        <v>51.7820265374837</v>
+        <v>52.0583336858972</v>
       </c>
       <c r="E156" t="n">
-        <v>74.6953916394014</v>
+        <v>74.1006512892296</v>
       </c>
       <c r="F156" t="n">
         <v>1919</v>
@@ -6714,13 +6714,13 @@
         <v>26</v>
       </c>
       <c r="C157" t="n">
-        <v>72.5109130500154</v>
+        <v>72.611460448223</v>
       </c>
       <c r="D157" t="n">
-        <v>61.2384762123408</v>
+        <v>60.9294963800294</v>
       </c>
       <c r="E157" t="n">
-        <v>84.559581557704</v>
+        <v>85.80375412534</v>
       </c>
       <c r="F157" t="n">
         <v>1919</v>
@@ -6752,13 +6752,13 @@
         <v>27</v>
       </c>
       <c r="C158" t="n">
-        <v>37.8752316512574</v>
+        <v>37.8305343276039</v>
       </c>
       <c r="D158" t="n">
-        <v>30.5853076488428</v>
+        <v>30.5397691031304</v>
       </c>
       <c r="E158" t="n">
-        <v>45.9112542055402</v>
+        <v>46.0820490515711</v>
       </c>
       <c r="F158" t="n">
         <v>1919</v>
@@ -6790,13 +6790,13 @@
         <v>28</v>
       </c>
       <c r="C159" t="n">
-        <v>34.3505089149283</v>
+        <v>34.6484092980389</v>
       </c>
       <c r="D159" t="n">
-        <v>27.7269207726832</v>
+        <v>27.713173847165</v>
       </c>
       <c r="E159" t="n">
-        <v>42.8846990802337</v>
+        <v>42.6993530391212</v>
       </c>
       <c r="F159" t="n">
         <v>1919</v>
@@ -6828,13 +6828,13 @@
         <v>29</v>
       </c>
       <c r="C160" t="n">
-        <v>46.3920343791178</v>
+        <v>46.3470380440491</v>
       </c>
       <c r="D160" t="n">
-        <v>37.9227610770919</v>
+        <v>38.8227747285789</v>
       </c>
       <c r="E160" t="n">
-        <v>56.1821811090898</v>
+        <v>55.5566989558444</v>
       </c>
       <c r="F160" t="n">
         <v>1919</v>
@@ -6866,13 +6866,13 @@
         <v>30</v>
       </c>
       <c r="C161" t="n">
-        <v>270.204501816615</v>
+        <v>269.537419791348</v>
       </c>
       <c r="D161" t="n">
-        <v>242.497269752186</v>
+        <v>239.950898476728</v>
       </c>
       <c r="E161" t="n">
-        <v>299.020710042046</v>
+        <v>300.896733659511</v>
       </c>
       <c r="F161" t="n">
         <v>1919</v>
@@ -6904,13 +6904,13 @@
         <v>31</v>
       </c>
       <c r="C162" t="n">
-        <v>71.2704900996781</v>
+        <v>71.1300613019738</v>
       </c>
       <c r="D162" t="n">
-        <v>60.4478074049232</v>
+        <v>59.9362129062827</v>
       </c>
       <c r="E162" t="n">
-        <v>83.4038822798661</v>
+        <v>83.4666782303291</v>
       </c>
       <c r="F162" t="n">
         <v>1919</v>
@@ -6942,13 +6942,13 @@
         <v>32</v>
       </c>
       <c r="C163" t="n">
-        <v>33.4171714343762</v>
+        <v>33.3159629900784</v>
       </c>
       <c r="D163" t="n">
-        <v>26.7231167948307</v>
+        <v>26.6702613929096</v>
       </c>
       <c r="E163" t="n">
-        <v>41.1585791064869</v>
+        <v>40.7323975389157</v>
       </c>
       <c r="F163" t="n">
         <v>1919</v>
@@ -6980,13 +6980,13 @@
         <v>33</v>
       </c>
       <c r="C164" t="n">
-        <v>176.871931550013</v>
+        <v>175.689602167584</v>
       </c>
       <c r="D164" t="n">
-        <v>155.470122192703</v>
+        <v>155.452278206417</v>
       </c>
       <c r="E164" t="n">
-        <v>197.868915783284</v>
+        <v>202.212357140525</v>
       </c>
       <c r="F164" t="n">
         <v>1919</v>
@@ -7018,13 +7018,13 @@
         <v>34</v>
       </c>
       <c r="C165" t="n">
-        <v>39.6465306338469</v>
+        <v>39.4767261108534</v>
       </c>
       <c r="D165" t="n">
-        <v>32.5707165593103</v>
+        <v>32.5434413856656</v>
       </c>
       <c r="E165" t="n">
-        <v>48.4049617461669</v>
+        <v>46.941248039219</v>
       </c>
       <c r="F165" t="n">
         <v>1919</v>
@@ -7056,13 +7056,13 @@
         <v>35</v>
       </c>
       <c r="C166" t="n">
-        <v>133.319744276972</v>
+        <v>133.803206351001</v>
       </c>
       <c r="D166" t="n">
-        <v>116.407235964164</v>
+        <v>117.789778541219</v>
       </c>
       <c r="E166" t="n">
-        <v>152.126568666235</v>
+        <v>152.186716626901</v>
       </c>
       <c r="F166" t="n">
         <v>1919</v>
@@ -7094,13 +7094,13 @@
         <v>36</v>
       </c>
       <c r="C167" t="n">
-        <v>40.1737103072755</v>
+        <v>40.1049008465166</v>
       </c>
       <c r="D167" t="n">
-        <v>32.4484229081904</v>
+        <v>32.6744911189695</v>
       </c>
       <c r="E167" t="n">
-        <v>48.6726004589185</v>
+        <v>48.7428936100908</v>
       </c>
       <c r="F167" t="n">
         <v>1919</v>
@@ -7132,13 +7132,13 @@
         <v>37</v>
       </c>
       <c r="C168" t="n">
-        <v>173.451465644987</v>
+        <v>173.559750242723</v>
       </c>
       <c r="D168" t="n">
-        <v>153.323886869393</v>
+        <v>151.995133866764</v>
       </c>
       <c r="E168" t="n">
-        <v>196.415515742633</v>
+        <v>197.207112955331</v>
       </c>
       <c r="F168" t="n">
         <v>1919</v>
@@ -7170,13 +7170,13 @@
         <v>38</v>
       </c>
       <c r="C169" t="n">
-        <v>123.056638792607</v>
+        <v>122.656375317125</v>
       </c>
       <c r="D169" t="n">
-        <v>108.293644527438</v>
+        <v>106.523235742767</v>
       </c>
       <c r="E169" t="n">
-        <v>142.895449715583</v>
+        <v>141.010453809773</v>
       </c>
       <c r="F169" t="n">
         <v>1919</v>
@@ -7208,13 +7208,13 @@
         <v>39</v>
       </c>
       <c r="C170" t="n">
-        <v>174.427220877702</v>
+        <v>174.746548504282</v>
       </c>
       <c r="D170" t="n">
-        <v>153.653802166082</v>
+        <v>153.571018814218</v>
       </c>
       <c r="E170" t="n">
-        <v>196.017644834668</v>
+        <v>197.63535037174</v>
       </c>
       <c r="F170" t="n">
         <v>1919</v>
@@ -7246,13 +7246,13 @@
         <v>40</v>
       </c>
       <c r="C171" t="n">
-        <v>147.62213774344</v>
+        <v>147.8607718372</v>
       </c>
       <c r="D171" t="n">
-        <v>129.346349334286</v>
+        <v>130.099742610612</v>
       </c>
       <c r="E171" t="n">
-        <v>167.755794643667</v>
+        <v>167.869210200778</v>
       </c>
       <c r="F171" t="n">
         <v>1919</v>
@@ -7284,13 +7284,13 @@
         <v>41</v>
       </c>
       <c r="C172" t="n">
-        <v>39.2295752958381</v>
+        <v>39.0894849554848</v>
       </c>
       <c r="D172" t="n">
-        <v>32.4313547508324</v>
+        <v>32.0135860820259</v>
       </c>
       <c r="E172" t="n">
-        <v>47.5194738761526</v>
+        <v>48.1445197813077</v>
       </c>
       <c r="F172" t="n">
         <v>1919</v>
@@ -7322,13 +7322,13 @@
         <v>42</v>
       </c>
       <c r="C173" t="n">
-        <v>28.9821997681435</v>
+        <v>28.5621052434211</v>
       </c>
       <c r="D173" t="n">
-        <v>23.1458511887449</v>
+        <v>22.8139458624285</v>
       </c>
       <c r="E173" t="n">
-        <v>35.6819587187214</v>
+        <v>35.4746938173068</v>
       </c>
       <c r="F173" t="n">
         <v>1919</v>
@@ -7360,13 +7360,13 @@
         <v>43</v>
       </c>
       <c r="C174" t="n">
-        <v>123.72139624321</v>
+        <v>122.845573982765</v>
       </c>
       <c r="D174" t="n">
-        <v>107.844132558099</v>
+        <v>105.934186097787</v>
       </c>
       <c r="E174" t="n">
-        <v>141.468750682087</v>
+        <v>141.84586240076</v>
       </c>
       <c r="F174" t="n">
         <v>1919</v>
@@ -7398,13 +7398,13 @@
         <v>44</v>
       </c>
       <c r="C175" t="n">
-        <v>38.389256723577</v>
+        <v>38.4951835407517</v>
       </c>
       <c r="D175" t="n">
-        <v>31.1349987504827</v>
+        <v>31.1743430718564</v>
       </c>
       <c r="E175" t="n">
-        <v>46.7966293727783</v>
+        <v>47.149890020942</v>
       </c>
       <c r="F175" t="n">
         <v>1919</v>
@@ -7436,13 +7436,13 @@
         <v>45</v>
       </c>
       <c r="C176" t="n">
-        <v>85.27405140819</v>
+        <v>84.8053034849044</v>
       </c>
       <c r="D176" t="n">
-        <v>72.7997173595945</v>
+        <v>72.4366346399928</v>
       </c>
       <c r="E176" t="n">
-        <v>99.8510398164699</v>
+        <v>98.6372271431351</v>
       </c>
       <c r="F176" t="n">
         <v>1919</v>
@@ -7474,13 +7474,13 @@
         <v>46</v>
       </c>
       <c r="C177" t="n">
-        <v>112.446694174494</v>
+        <v>111.951196099396</v>
       </c>
       <c r="D177" t="n">
-        <v>97.5502078277885</v>
+        <v>95.6987297483574</v>
       </c>
       <c r="E177" t="n">
-        <v>129.762558404167</v>
+        <v>128.348393971199</v>
       </c>
       <c r="F177" t="n">
         <v>1919</v>
@@ -7512,13 +7512,13 @@
         <v>47</v>
       </c>
       <c r="C178" t="n">
-        <v>86.7293409170585</v>
+        <v>86.0569686522188</v>
       </c>
       <c r="D178" t="n">
-        <v>74.2067386503826</v>
+        <v>74.5284084964606</v>
       </c>
       <c r="E178" t="n">
-        <v>99.9056027639462</v>
+        <v>101.851071950518</v>
       </c>
       <c r="F178" t="n">
         <v>1919</v>
@@ -7550,13 +7550,13 @@
         <v>48</v>
       </c>
       <c r="C179" t="n">
-        <v>158.692781548938</v>
+        <v>158.388819011032</v>
       </c>
       <c r="D179" t="n">
-        <v>139.008590635978</v>
+        <v>140.235198763354</v>
       </c>
       <c r="E179" t="n">
-        <v>181.040177733335</v>
+        <v>179.609159300017</v>
       </c>
       <c r="F179" t="n">
         <v>1919</v>
@@ -7588,13 +7588,13 @@
         <v>49</v>
       </c>
       <c r="C180" t="n">
-        <v>82.276627003447</v>
+        <v>82.272351370947</v>
       </c>
       <c r="D180" t="n">
-        <v>69.9524373189512</v>
+        <v>70.0085459418327</v>
       </c>
       <c r="E180" t="n">
-        <v>95.0464526129943</v>
+        <v>96.1967715786077</v>
       </c>
       <c r="F180" t="n">
         <v>1919</v>
@@ -7626,13 +7626,13 @@
         <v>50</v>
       </c>
       <c r="C181" t="n">
-        <v>96.1698813255671</v>
+        <v>96.4834533163038</v>
       </c>
       <c r="D181" t="n">
-        <v>82.9908444707146</v>
+        <v>82.9456468075526</v>
       </c>
       <c r="E181" t="n">
-        <v>112.233323928043</v>
+        <v>111.898265409587</v>
       </c>
       <c r="F181" t="n">
         <v>1919</v>
@@ -7664,13 +7664,13 @@
         <v>51</v>
       </c>
       <c r="C182" t="n">
-        <v>110.392349442924</v>
+        <v>109.401147492375</v>
       </c>
       <c r="D182" t="n">
-        <v>94.9974650102387</v>
+        <v>94.1823386206362</v>
       </c>
       <c r="E182" t="n">
-        <v>126.156846559428</v>
+        <v>125.496501702664</v>
       </c>
       <c r="F182" t="n">
         <v>1919</v>
@@ -7702,13 +7702,13 @@
         <v>52</v>
       </c>
       <c r="C183" t="n">
-        <v>41.6669931670618</v>
+        <v>42.0127958045745</v>
       </c>
       <c r="D183" t="n">
-        <v>34.32274217301</v>
+        <v>34.6440995684851</v>
       </c>
       <c r="E183" t="n">
-        <v>50.5709368417687</v>
+        <v>50.9060705987685</v>
       </c>
       <c r="F183" t="n">
         <v>1919</v>
@@ -7740,13 +7740,13 @@
         <v>53</v>
       </c>
       <c r="C184" t="n">
-        <v>19.8414449401808</v>
+        <v>19.7656615144246</v>
       </c>
       <c r="D184" t="n">
-        <v>15.374619199518</v>
+        <v>15.0363219169065</v>
       </c>
       <c r="E184" t="n">
-        <v>25.4469745291957</v>
+        <v>25.4058177094493</v>
       </c>
       <c r="F184" t="n">
         <v>1919</v>
@@ -7778,13 +7778,13 @@
         <v>54</v>
       </c>
       <c r="C185" t="n">
-        <v>280.107197460841</v>
+        <v>279.872701497373</v>
       </c>
       <c r="D185" t="n">
-        <v>252.984162479386</v>
+        <v>251.124635110261</v>
       </c>
       <c r="E185" t="n">
-        <v>309.207170922567</v>
+        <v>310.380660374398</v>
       </c>
       <c r="F185" t="n">
         <v>1919</v>
@@ -7816,13 +7816,13 @@
         <v>55</v>
       </c>
       <c r="C186" t="n">
-        <v>112.831091202694</v>
+        <v>113.301114828327</v>
       </c>
       <c r="D186" t="n">
-        <v>98.0191677479817</v>
+        <v>97.4551106569504</v>
       </c>
       <c r="E186" t="n">
-        <v>130.269264951566</v>
+        <v>130.915825255826</v>
       </c>
       <c r="F186" t="n">
         <v>1919</v>
@@ -7854,13 +7854,13 @@
         <v>56</v>
       </c>
       <c r="C187" t="n">
-        <v>261.660258414925</v>
+        <v>261.304024291381</v>
       </c>
       <c r="D187" t="n">
-        <v>234.985189572098</v>
+        <v>231.081233757406</v>
       </c>
       <c r="E187" t="n">
-        <v>289.028595972183</v>
+        <v>294.193183179946</v>
       </c>
       <c r="F187" t="n">
         <v>1919</v>
@@ -7892,13 +7892,13 @@
         <v>57</v>
       </c>
       <c r="C188" t="n">
-        <v>351.406031979534</v>
+        <v>351.411070367468</v>
       </c>
       <c r="D188" t="n">
-        <v>320.392171434263</v>
+        <v>317.322240185997</v>
       </c>
       <c r="E188" t="n">
-        <v>385.836246518436</v>
+        <v>389.440313091176</v>
       </c>
       <c r="F188" t="n">
         <v>1919</v>
@@ -7930,13 +7930,13 @@
         <v>58</v>
       </c>
       <c r="C189" t="n">
-        <v>114.101626981926</v>
+        <v>114.115100634801</v>
       </c>
       <c r="D189" t="n">
-        <v>99.0693019690466</v>
+        <v>98.1383455756657</v>
       </c>
       <c r="E189" t="n">
-        <v>131.788343830178</v>
+        <v>133.001362984195</v>
       </c>
       <c r="F189" t="n">
         <v>1919</v>
@@ -7968,13 +7968,13 @@
         <v>59</v>
       </c>
       <c r="C190" t="n">
-        <v>130.91297510418</v>
+        <v>130.886028951961</v>
       </c>
       <c r="D190" t="n">
-        <v>113.981544396003</v>
+        <v>112.980117759599</v>
       </c>
       <c r="E190" t="n">
-        <v>149.453919599766</v>
+        <v>150.686700301401</v>
       </c>
       <c r="F190" t="n">
         <v>1919</v>
@@ -8006,13 +8006,13 @@
         <v>60</v>
       </c>
       <c r="C191" t="n">
-        <v>47.7338935889047</v>
+        <v>47.4723860433018</v>
       </c>
       <c r="D191" t="n">
-        <v>39.0946980694174</v>
+        <v>38.4557065723661</v>
       </c>
       <c r="E191" t="n">
-        <v>57.7111202092913</v>
+        <v>57.0911968298295</v>
       </c>
       <c r="F191" t="n">
         <v>1919</v>
@@ -8044,13 +8044,13 @@
         <v>61</v>
       </c>
       <c r="C192" t="n">
-        <v>68.6978655860229</v>
+        <v>68.3666921750686</v>
       </c>
       <c r="D192" t="n">
-        <v>57.7012248870645</v>
+        <v>58.177169592342</v>
       </c>
       <c r="E192" t="n">
-        <v>81.4473631698267</v>
+        <v>80.5742070902766</v>
       </c>
       <c r="F192" t="n">
         <v>1919</v>
@@ -8082,13 +8082,13 @@
         <v>62</v>
       </c>
       <c r="C193" t="n">
-        <v>258.153768517894</v>
+        <v>257.429674461006</v>
       </c>
       <c r="D193" t="n">
-        <v>231.295394179563</v>
+        <v>230.750956987707</v>
       </c>
       <c r="E193" t="n">
-        <v>287.670438314583</v>
+        <v>288.386983092935</v>
       </c>
       <c r="F193" t="n">
         <v>1919</v>
@@ -8120,13 +8120,13 @@
         <v>63</v>
       </c>
       <c r="C194" t="n">
-        <v>26.0076926981626</v>
+        <v>26.2348482800621</v>
       </c>
       <c r="D194" t="n">
-        <v>20.3990967885386</v>
+        <v>20.9836423941471</v>
       </c>
       <c r="E194" t="n">
-        <v>32.4484482306719</v>
+        <v>32.9821433467018</v>
       </c>
       <c r="F194" t="n">
         <v>1919</v>
@@ -8158,13 +8158,13 @@
         <v>64</v>
       </c>
       <c r="C195" t="n">
-        <v>59.0611363259361</v>
+        <v>58.9525187204288</v>
       </c>
       <c r="D195" t="n">
-        <v>49.6791809204905</v>
+        <v>49.5818573519368</v>
       </c>
       <c r="E195" t="n">
-        <v>69.9216774378143</v>
+        <v>69.7331330686912</v>
       </c>
       <c r="F195" t="n">
         <v>1919</v>
@@ -8196,13 +8196,13 @@
         <v>65</v>
       </c>
       <c r="C196" t="n">
-        <v>67.8748789897692</v>
+        <v>67.9720835713696</v>
       </c>
       <c r="D196" t="n">
-        <v>57.184448588356</v>
+        <v>57.9204315269168</v>
       </c>
       <c r="E196" t="n">
-        <v>80.1925325278848</v>
+        <v>79.5901807094613</v>
       </c>
       <c r="F196" t="n">
         <v>1919</v>
@@ -8234,13 +8234,13 @@
         <v>66</v>
       </c>
       <c r="C197" t="n">
-        <v>77.6126540774688</v>
+        <v>78.1102506475246</v>
       </c>
       <c r="D197" t="n">
-        <v>66.2376776630742</v>
+        <v>65.4216951270961</v>
       </c>
       <c r="E197" t="n">
-        <v>90.5947309869025</v>
+        <v>91.106814993775</v>
       </c>
       <c r="F197" t="n">
         <v>1919</v>
@@ -8272,13 +8272,13 @@
         <v>67</v>
       </c>
       <c r="C198" t="n">
-        <v>90.8479523067057</v>
+        <v>90.7856012347562</v>
       </c>
       <c r="D198" t="n">
-        <v>78.8809475623712</v>
+        <v>77.798956580715</v>
       </c>
       <c r="E198" t="n">
-        <v>106.376974280909</v>
+        <v>105.284556281697</v>
       </c>
       <c r="F198" t="n">
         <v>1919</v>
@@ -8310,13 +8310,13 @@
         <v>68</v>
       </c>
       <c r="C199" t="n">
-        <v>73.8543737104807</v>
+        <v>73.8898871661957</v>
       </c>
       <c r="D199" t="n">
-        <v>63.1140184349946</v>
+        <v>62.8798310156889</v>
       </c>
       <c r="E199" t="n">
-        <v>86.5208017842343</v>
+        <v>87.3644253970333</v>
       </c>
       <c r="F199" t="n">
         <v>1919</v>
@@ -8348,13 +8348,13 @@
         <v>69</v>
       </c>
       <c r="C200" t="n">
-        <v>107.190871565047</v>
+        <v>107.892409748334</v>
       </c>
       <c r="D200" t="n">
-        <v>93.5748667142879</v>
+        <v>91.7457169492888</v>
       </c>
       <c r="E200" t="n">
-        <v>122.037784979032</v>
+        <v>124.091355459968</v>
       </c>
       <c r="F200" t="n">
         <v>1919</v>
@@ -8386,13 +8386,13 @@
         <v>70</v>
       </c>
       <c r="C201" t="n">
-        <v>49.1384649523234</v>
+        <v>48.8914265250124</v>
       </c>
       <c r="D201" t="n">
-        <v>40.4200638467915</v>
+        <v>40.5879799243224</v>
       </c>
       <c r="E201" t="n">
-        <v>58.4575817629667</v>
+        <v>58.9192657706246</v>
       </c>
       <c r="F201" t="n">
         <v>1919</v>
@@ -8424,13 +8424,13 @@
         <v>71</v>
       </c>
       <c r="C202" t="n">
-        <v>39.5097041750268</v>
+        <v>39.2044453879982</v>
       </c>
       <c r="D202" t="n">
-        <v>32.028017458523</v>
+        <v>31.7471050319647</v>
       </c>
       <c r="E202" t="n">
-        <v>47.5100501969006</v>
+        <v>48.2086071381834</v>
       </c>
       <c r="F202" t="n">
         <v>1919</v>
@@ -8462,13 +8462,13 @@
         <v>72</v>
       </c>
       <c r="C203" t="n">
-        <v>85.4171684027893</v>
+        <v>86.3927160829614</v>
       </c>
       <c r="D203" t="n">
-        <v>73.660822034656</v>
+        <v>73.9603608602709</v>
       </c>
       <c r="E203" t="n">
-        <v>99.7935160030521</v>
+        <v>100.239724164479</v>
       </c>
       <c r="F203" t="n">
         <v>1919</v>
@@ -8500,13 +8500,13 @@
         <v>73</v>
       </c>
       <c r="C204" t="n">
-        <v>208.039441407253</v>
+        <v>206.40455432012</v>
       </c>
       <c r="D204" t="n">
-        <v>186.259779237011</v>
+        <v>181.007284787582</v>
       </c>
       <c r="E204" t="n">
-        <v>231.546068537335</v>
+        <v>232.26192969157</v>
       </c>
       <c r="F204" t="n">
         <v>1919</v>
@@ -8538,13 +8538,13 @@
         <v>74</v>
       </c>
       <c r="C205" t="n">
-        <v>34.5147503504204</v>
+        <v>34.7127045503138</v>
       </c>
       <c r="D205" t="n">
-        <v>27.6451673589572</v>
+        <v>27.639662570458</v>
       </c>
       <c r="E205" t="n">
-        <v>41.8838933446848</v>
+        <v>42.7733901139942</v>
       </c>
       <c r="F205" t="n">
         <v>1919</v>
@@ -8576,13 +8576,13 @@
         <v>75</v>
       </c>
       <c r="C206" t="n">
-        <v>14.4807429851737</v>
+        <v>14.6811450609477</v>
       </c>
       <c r="D206" t="n">
-        <v>11.1954934207407</v>
+        <v>11.1542687091696</v>
       </c>
       <c r="E206" t="n">
-        <v>18.6607856231306</v>
+        <v>19.0441433391702</v>
       </c>
       <c r="F206" t="n">
         <v>1919</v>
@@ -8614,13 +8614,13 @@
         <v>76</v>
       </c>
       <c r="C207" t="n">
-        <v>148.340685700325</v>
+        <v>148.888464782371</v>
       </c>
       <c r="D207" t="n">
-        <v>130.110325588877</v>
+        <v>130.653921388393</v>
       </c>
       <c r="E207" t="n">
-        <v>168.720487917826</v>
+        <v>168.674496082135</v>
       </c>
       <c r="F207" t="n">
         <v>1919</v>
@@ -8652,13 +8652,13 @@
         <v>77</v>
       </c>
       <c r="C208" t="n">
-        <v>45.7947891757265</v>
+        <v>45.6257525367002</v>
       </c>
       <c r="D208" t="n">
-        <v>37.2644359576805</v>
+        <v>37.5145335103582</v>
       </c>
       <c r="E208" t="n">
-        <v>54.9387647779925</v>
+        <v>55.0201666405466</v>
       </c>
       <c r="F208" t="n">
         <v>1919</v>
@@ -8690,13 +8690,13 @@
         <v>78</v>
       </c>
       <c r="C209" t="n">
-        <v>136.177237158315</v>
+        <v>135.320445788255</v>
       </c>
       <c r="D209" t="n">
-        <v>118.675636333269</v>
+        <v>118.032206492965</v>
       </c>
       <c r="E209" t="n">
-        <v>153.978518960513</v>
+        <v>154.549822789456</v>
       </c>
       <c r="F209" t="n">
         <v>1919</v>
@@ -8728,13 +8728,13 @@
         <v>79</v>
       </c>
       <c r="C210" t="n">
-        <v>81.1138989853561</v>
+        <v>81.3393605816779</v>
       </c>
       <c r="D210" t="n">
-        <v>69.1926477123239</v>
+        <v>69.0139778884034</v>
       </c>
       <c r="E210" t="n">
-        <v>94.9670155781815</v>
+        <v>94.986756727865</v>
       </c>
       <c r="F210" t="n">
         <v>1919</v>
@@ -8766,13 +8766,13 @@
         <v>80</v>
       </c>
       <c r="C211" t="n">
-        <v>173.814622242841</v>
+        <v>173.619843192376</v>
       </c>
       <c r="D211" t="n">
-        <v>153.014643806026</v>
+        <v>151.640640526035</v>
       </c>
       <c r="E211" t="n">
-        <v>197.736786130956</v>
+        <v>195.988281161569</v>
       </c>
       <c r="F211" t="n">
         <v>1919</v>
@@ -8804,13 +8804,13 @@
         <v>81</v>
       </c>
       <c r="C212" t="n">
-        <v>91.7454168583452</v>
+        <v>91.448895343101</v>
       </c>
       <c r="D212" t="n">
-        <v>78.5203105399148</v>
+        <v>78.757925298116</v>
       </c>
       <c r="E212" t="n">
-        <v>105.937584726569</v>
+        <v>106.33806996517</v>
       </c>
       <c r="F212" t="n">
         <v>1919</v>
@@ -8842,13 +8842,13 @@
         <v>82</v>
       </c>
       <c r="C213" t="n">
-        <v>466.764184009697</v>
+        <v>468.133510917023</v>
       </c>
       <c r="D213" t="n">
-        <v>426.692367475733</v>
+        <v>422.766696869332</v>
       </c>
       <c r="E213" t="n">
-        <v>508.350407339865</v>
+        <v>518.370228983718</v>
       </c>
       <c r="F213" t="n">
         <v>1919</v>
@@ -8880,13 +8880,13 @@
         <v>83</v>
       </c>
       <c r="C214" t="n">
-        <v>108.218886260157</v>
+        <v>108.592405505838</v>
       </c>
       <c r="D214" t="n">
-        <v>93.363341319455</v>
+        <v>93.367849052981</v>
       </c>
       <c r="E214" t="n">
-        <v>125.573432927319</v>
+        <v>125.615066584238</v>
       </c>
       <c r="F214" t="n">
         <v>1919</v>
@@ -8918,13 +8918,13 @@
         <v>84</v>
       </c>
       <c r="C215" t="n">
-        <v>98.3806565981659</v>
+        <v>97.6971112495628</v>
       </c>
       <c r="D215" t="n">
-        <v>84.853873328292</v>
+        <v>84.3284315521088</v>
       </c>
       <c r="E215" t="n">
-        <v>114.319178929169</v>
+        <v>114.61231023654</v>
       </c>
       <c r="F215" t="n">
         <v>1919</v>
@@ -8956,13 +8956,13 @@
         <v>85</v>
       </c>
       <c r="C216" t="n">
-        <v>121.172764595896</v>
+        <v>120.243177675403</v>
       </c>
       <c r="D216" t="n">
-        <v>105.198166126127</v>
+        <v>104.593876436223</v>
       </c>
       <c r="E216" t="n">
-        <v>138.104088328476</v>
+        <v>137.597079209318</v>
       </c>
       <c r="F216" t="n">
         <v>1919</v>
@@ -8994,13 +8994,13 @@
         <v>86</v>
       </c>
       <c r="C217" t="n">
-        <v>253.947288639231</v>
+        <v>252.571616161421</v>
       </c>
       <c r="D217" t="n">
-        <v>226.553274893607</v>
+        <v>226.035178203766</v>
       </c>
       <c r="E217" t="n">
-        <v>283.100055485328</v>
+        <v>287.104347429644</v>
       </c>
       <c r="F217" t="n">
         <v>1919</v>
@@ -9032,13 +9032,13 @@
         <v>87</v>
       </c>
       <c r="C218" t="n">
-        <v>34.9286775438455</v>
+        <v>34.7708880602174</v>
       </c>
       <c r="D218" t="n">
-        <v>28.3700850412438</v>
+        <v>28.2214190189958</v>
       </c>
       <c r="E218" t="n">
-        <v>41.9361979209703</v>
+        <v>42.3618596273184</v>
       </c>
       <c r="F218" t="n">
         <v>1919</v>
@@ -9070,13 +9070,13 @@
         <v>88</v>
       </c>
       <c r="C219" t="n">
-        <v>78.5753312413503</v>
+        <v>80.3287781276548</v>
       </c>
       <c r="D219" t="n">
-        <v>67.3045673987291</v>
+        <v>68.5148150102329</v>
       </c>
       <c r="E219" t="n">
-        <v>90.9802454926823</v>
+        <v>94.9670949786571</v>
       </c>
       <c r="F219" t="n">
         <v>1919</v>
@@ -9108,13 +9108,13 @@
         <v>89</v>
       </c>
       <c r="C220" t="n">
-        <v>124.538532001992</v>
+        <v>124.208519225459</v>
       </c>
       <c r="D220" t="n">
-        <v>107.783353929191</v>
+        <v>108.521231731586</v>
       </c>
       <c r="E220" t="n">
-        <v>141.065129268644</v>
+        <v>142.634403234488</v>
       </c>
       <c r="F220" t="n">
         <v>1919</v>
@@ -9146,13 +9146,13 @@
         <v>90</v>
       </c>
       <c r="C221" t="n">
-        <v>76.5210834866505</v>
+        <v>76.1869962201368</v>
       </c>
       <c r="D221" t="n">
-        <v>64.8967054688086</v>
+        <v>64.5051316166037</v>
       </c>
       <c r="E221" t="n">
-        <v>90.4135767052456</v>
+        <v>90.0754564282156</v>
       </c>
       <c r="F221" t="n">
         <v>1919</v>
@@ -9184,13 +9184,13 @@
         <v>91</v>
       </c>
       <c r="C222" t="n">
-        <v>242.922749350084</v>
+        <v>241.658443274541</v>
       </c>
       <c r="D222" t="n">
-        <v>216.182096123724</v>
+        <v>215.747639273425</v>
       </c>
       <c r="E222" t="n">
-        <v>269.296620555965</v>
+        <v>272.736979444644</v>
       </c>
       <c r="F222" t="n">
         <v>1919</v>
@@ -9222,13 +9222,13 @@
         <v>92</v>
       </c>
       <c r="C223" t="n">
-        <v>187.15754079551</v>
+        <v>186.464214649155</v>
       </c>
       <c r="D223" t="n">
-        <v>166.365547659208</v>
+        <v>164.490129171331</v>
       </c>
       <c r="E223" t="n">
-        <v>209.59198251492</v>
+        <v>209.927722252219</v>
       </c>
       <c r="F223" t="n">
         <v>1919</v>
@@ -9260,13 +9260,13 @@
         <v>93</v>
       </c>
       <c r="C224" t="n">
-        <v>65.8854359696997</v>
+        <v>65.7832942535419</v>
       </c>
       <c r="D224" t="n">
-        <v>55.4766288778161</v>
+        <v>54.9533742143207</v>
       </c>
       <c r="E224" t="n">
-        <v>77.1821010057582</v>
+        <v>77.3111977040727</v>
       </c>
       <c r="F224" t="n">
         <v>1919</v>
@@ -9298,13 +9298,13 @@
         <v>94</v>
       </c>
       <c r="C225" t="n">
-        <v>6.64028517046923</v>
+        <v>6.58837119134315</v>
       </c>
       <c r="D225" t="n">
-        <v>4.73417237026879</v>
+        <v>4.75326105248135</v>
       </c>
       <c r="E225" t="n">
-        <v>9.13896120405424</v>
+        <v>8.88487671258613</v>
       </c>
       <c r="F225" t="n">
         <v>1919</v>
@@ -9336,13 +9336,13 @@
         <v>95</v>
       </c>
       <c r="C226" t="n">
-        <v>138.355389180273</v>
+        <v>138.209553635648</v>
       </c>
       <c r="D226" t="n">
-        <v>121.48144454793</v>
+        <v>120.271704946648</v>
       </c>
       <c r="E226" t="n">
-        <v>157.42588500866</v>
+        <v>158.814688324115</v>
       </c>
       <c r="F226" t="n">
         <v>1919</v>
@@ -9374,13 +9374,13 @@
         <v>96</v>
       </c>
       <c r="C227" t="n">
-        <v>148.268025896141</v>
+        <v>148.922259366266</v>
       </c>
       <c r="D227" t="n">
-        <v>129.76690962201</v>
+        <v>130.590986808388</v>
       </c>
       <c r="E227" t="n">
-        <v>169.685786382078</v>
+        <v>169.565363886873</v>
       </c>
       <c r="F227" t="n">
         <v>1919</v>
@@ -9412,13 +9412,13 @@
         <v>97</v>
       </c>
       <c r="C228" t="n">
-        <v>163.301455201456</v>
+        <v>162.880005559935</v>
       </c>
       <c r="D228" t="n">
-        <v>144.495175512325</v>
+        <v>143.487155332972</v>
       </c>
       <c r="E228" t="n">
-        <v>184.581670598172</v>
+        <v>184.396075929925</v>
       </c>
       <c r="F228" t="n">
         <v>1919</v>
@@ -9450,13 +9450,13 @@
         <v>98</v>
       </c>
       <c r="C229" t="n">
-        <v>65.958880926882</v>
+        <v>66.2057821139422</v>
       </c>
       <c r="D229" t="n">
-        <v>55.332671513905</v>
+        <v>55.8748217744549</v>
       </c>
       <c r="E229" t="n">
-        <v>78.1742006716835</v>
+        <v>78.2947884326196</v>
       </c>
       <c r="F229" t="n">
         <v>1919</v>
@@ -9488,13 +9488,13 @@
         <v>99</v>
       </c>
       <c r="C230" t="n">
-        <v>86.91241320102</v>
+        <v>86.7953021046553</v>
       </c>
       <c r="D230" t="n">
-        <v>73.955155991226</v>
+        <v>74.7527387965961</v>
       </c>
       <c r="E230" t="n">
-        <v>99.7416218021861</v>
+        <v>102.482460691032</v>
       </c>
       <c r="F230" t="n">
         <v>1919</v>
@@ -9526,13 +9526,13 @@
         <v>100</v>
       </c>
       <c r="C231" t="n">
-        <v>47.2963983286957</v>
+        <v>47.3912543244996</v>
       </c>
       <c r="D231" t="n">
-        <v>39.2967489221952</v>
+        <v>39.4248739016244</v>
       </c>
       <c r="E231" t="n">
-        <v>56.3849501590912</v>
+        <v>56.8291248911709</v>
       </c>
       <c r="F231" t="n">
         <v>1919</v>
@@ -9564,13 +9564,13 @@
         <v>101</v>
       </c>
       <c r="C232" t="n">
-        <v>92.365383277861</v>
+        <v>92.3569894028331</v>
       </c>
       <c r="D232" t="n">
-        <v>80.0405796479483</v>
+        <v>78.9405006680003</v>
       </c>
       <c r="E232" t="n">
-        <v>106.683938118241</v>
+        <v>107.78076348661</v>
       </c>
       <c r="F232" t="n">
         <v>1919</v>
@@ -9602,13 +9602,13 @@
         <v>102</v>
       </c>
       <c r="C233" t="n">
-        <v>119.63341475679</v>
+        <v>119.696992931947</v>
       </c>
       <c r="D233" t="n">
-        <v>105.016956816515</v>
+        <v>104.461107459311</v>
       </c>
       <c r="E233" t="n">
-        <v>136.954291920216</v>
+        <v>138.483774138176</v>
       </c>
       <c r="F233" t="n">
         <v>1919</v>
@@ -9640,13 +9640,13 @@
         <v>103</v>
       </c>
       <c r="C234" t="n">
-        <v>59.8337745704553</v>
+        <v>60.4495973533987</v>
       </c>
       <c r="D234" t="n">
-        <v>49.492264364872</v>
+        <v>50.2312741236049</v>
       </c>
       <c r="E234" t="n">
-        <v>69.9115727831577</v>
+        <v>72.383842931245</v>
       </c>
       <c r="F234" t="n">
         <v>1919</v>
@@ -9678,13 +9678,13 @@
         <v>104</v>
       </c>
       <c r="C235" t="n">
-        <v>147.64287136282</v>
+        <v>147.741980152501</v>
       </c>
       <c r="D235" t="n">
-        <v>131.242436648602</v>
+        <v>129.542463203374</v>
       </c>
       <c r="E235" t="n">
-        <v>168.511869136552</v>
+        <v>169.926415058609</v>
       </c>
       <c r="F235" t="n">
         <v>1919</v>
@@ -9716,13 +9716,13 @@
         <v>105</v>
       </c>
       <c r="C236" t="n">
-        <v>658.11166923344</v>
+        <v>655.561156290075</v>
       </c>
       <c r="D236" t="n">
-        <v>607.93746918668</v>
+        <v>598.723117217925</v>
       </c>
       <c r="E236" t="n">
-        <v>713.439499849282</v>
+        <v>721.889572241456</v>
       </c>
       <c r="F236" t="n">
         <v>1919</v>
@@ -9754,13 +9754,13 @@
         <v>106</v>
       </c>
       <c r="C237" t="n">
-        <v>51.01647694926</v>
+        <v>50.5745796767574</v>
       </c>
       <c r="D237" t="n">
-        <v>42.2460542138975</v>
+        <v>41.7109000106907</v>
       </c>
       <c r="E237" t="n">
-        <v>61.0806436655958</v>
+        <v>60.8417989469452</v>
       </c>
       <c r="F237" t="n">
         <v>1919</v>
@@ -9792,13 +9792,13 @@
         <v>107</v>
       </c>
       <c r="C238" t="n">
-        <v>95.8420524957004</v>
+        <v>96.2652585166205</v>
       </c>
       <c r="D238" t="n">
-        <v>82.6756137109901</v>
+        <v>82.7171487036703</v>
       </c>
       <c r="E238" t="n">
-        <v>110.992323511588</v>
+        <v>111.290481909518</v>
       </c>
       <c r="F238" t="n">
         <v>1919</v>
@@ -9830,13 +9830,13 @@
         <v>108</v>
       </c>
       <c r="C239" t="n">
-        <v>66.9902969385134</v>
+        <v>66.7584581807614</v>
       </c>
       <c r="D239" t="n">
-        <v>55.6868952874713</v>
+        <v>56.1325169368954</v>
       </c>
       <c r="E239" t="n">
-        <v>79.0490162738634</v>
+        <v>80.3413400062289</v>
       </c>
       <c r="F239" t="n">
         <v>1919</v>
@@ -9868,13 +9868,13 @@
         <v>109</v>
       </c>
       <c r="C240" t="n">
-        <v>100.952160291893</v>
+        <v>100.847163132307</v>
       </c>
       <c r="D240" t="n">
-        <v>86.8434266813753</v>
+        <v>87.2956711424705</v>
       </c>
       <c r="E240" t="n">
-        <v>115.589332693345</v>
+        <v>116.669574561794</v>
       </c>
       <c r="F240" t="n">
         <v>1919</v>
@@ -9906,13 +9906,13 @@
         <v>110</v>
       </c>
       <c r="C241" t="n">
-        <v>169.596342943618</v>
+        <v>169.297154796458</v>
       </c>
       <c r="D241" t="n">
-        <v>149.263750049767</v>
+        <v>149.179101703199</v>
       </c>
       <c r="E241" t="n">
-        <v>192.147305281421</v>
+        <v>193.036682258485</v>
       </c>
       <c r="F241" t="n">
         <v>1919</v>
@@ -9944,13 +9944,13 @@
         <v>111</v>
       </c>
       <c r="C242" t="n">
-        <v>24.7328391647072</v>
+        <v>24.6240185559498</v>
       </c>
       <c r="D242" t="n">
-        <v>19.3757253792541</v>
+        <v>19.2962377422665</v>
       </c>
       <c r="E242" t="n">
-        <v>31.503020221179</v>
+        <v>31.1560395705395</v>
       </c>
       <c r="F242" t="n">
         <v>1919</v>
@@ -9982,13 +9982,13 @@
         <v>112</v>
       </c>
       <c r="C243" t="n">
-        <v>107.630206727321</v>
+        <v>107.629936793397</v>
       </c>
       <c r="D243" t="n">
-        <v>92.9483245640803</v>
+        <v>92.9839259513492</v>
       </c>
       <c r="E243" t="n">
-        <v>122.136394038976</v>
+        <v>123.772579588964</v>
       </c>
       <c r="F243" t="n">
         <v>1919</v>
@@ -10020,13 +10020,13 @@
         <v>113</v>
       </c>
       <c r="C244" t="n">
-        <v>98.7013144179529</v>
+        <v>98.4096688671824</v>
       </c>
       <c r="D244" t="n">
-        <v>85.5711099010691</v>
+        <v>84.8478589852848</v>
       </c>
       <c r="E244" t="n">
-        <v>113.372375679335</v>
+        <v>114.014785880425</v>
       </c>
       <c r="F244" t="n">
         <v>1919</v>
@@ -10058,13 +10058,13 @@
         <v>114</v>
       </c>
       <c r="C245" t="n">
-        <v>157.329952137576</v>
+        <v>156.579920618591</v>
       </c>
       <c r="D245" t="n">
-        <v>139.465299850072</v>
+        <v>136.993952432894</v>
       </c>
       <c r="E245" t="n">
-        <v>177.581542563149</v>
+        <v>178.448729756473</v>
       </c>
       <c r="F245" t="n">
         <v>1919</v>
@@ -10096,13 +10096,13 @@
         <v>115</v>
       </c>
       <c r="C246" t="n">
-        <v>68.7593703280693</v>
+        <v>68.9173504304987</v>
       </c>
       <c r="D246" t="n">
-        <v>58.2257876899925</v>
+        <v>58.2172696431458</v>
       </c>
       <c r="E246" t="n">
-        <v>80.4453706475122</v>
+        <v>81.0272137161641</v>
       </c>
       <c r="F246" t="n">
         <v>1919</v>
@@ -10134,13 +10134,13 @@
         <v>116</v>
       </c>
       <c r="C247" t="n">
-        <v>74.1008469648877</v>
+        <v>74.2553209397811</v>
       </c>
       <c r="D247" t="n">
-        <v>62.9384761126722</v>
+        <v>61.9108206304056</v>
       </c>
       <c r="E247" t="n">
-        <v>86.7897404145318</v>
+        <v>86.8118656594908</v>
       </c>
       <c r="F247" t="n">
         <v>1919</v>
@@ -10172,13 +10172,13 @@
         <v>117</v>
       </c>
       <c r="C248" t="n">
-        <v>32.5227473476039</v>
+        <v>32.2128286555474</v>
       </c>
       <c r="D248" t="n">
-        <v>26.416389405772</v>
+        <v>26.0971564888919</v>
       </c>
       <c r="E248" t="n">
-        <v>41.3675441214635</v>
+        <v>40.3611002157238</v>
       </c>
       <c r="F248" t="n">
         <v>1919</v>
@@ -10210,13 +10210,13 @@
         <v>118</v>
       </c>
       <c r="C249" t="n">
-        <v>191.710351224382</v>
+        <v>190.99093549965</v>
       </c>
       <c r="D249" t="n">
-        <v>171.97581392992</v>
+        <v>168.138818229195</v>
       </c>
       <c r="E249" t="n">
-        <v>214.562110534256</v>
+        <v>214.777391137895</v>
       </c>
       <c r="F249" t="n">
         <v>1919</v>
@@ -10248,13 +10248,13 @@
         <v>119</v>
       </c>
       <c r="C250" t="n">
-        <v>59.9236891941067</v>
+        <v>60.2642483504066</v>
       </c>
       <c r="D250" t="n">
-        <v>50.4823448787066</v>
+        <v>49.6323226223076</v>
       </c>
       <c r="E250" t="n">
-        <v>70.6966028835953</v>
+        <v>70.8206184632376</v>
       </c>
       <c r="F250" t="n">
         <v>1919</v>
@@ -10286,13 +10286,13 @@
         <v>120</v>
       </c>
       <c r="C251" t="n">
-        <v>94.2415422226278</v>
+        <v>94.2155209385989</v>
       </c>
       <c r="D251" t="n">
-        <v>81.3686365188834</v>
+        <v>81.0175158594293</v>
       </c>
       <c r="E251" t="n">
-        <v>108.104651708492</v>
+        <v>109.478896794279</v>
       </c>
       <c r="F251" t="n">
         <v>1919</v>
@@ -10324,13 +10324,13 @@
         <v>121</v>
       </c>
       <c r="C252" t="n">
-        <v>198.598243636921</v>
+        <v>199.183850930053</v>
       </c>
       <c r="D252" t="n">
-        <v>176.189638136294</v>
+        <v>175.648868896967</v>
       </c>
       <c r="E252" t="n">
-        <v>223.640553158363</v>
+        <v>225.047033886838</v>
       </c>
       <c r="F252" t="n">
         <v>1919</v>
@@ -10362,13 +10362,13 @@
         <v>122</v>
       </c>
       <c r="C253" t="n">
-        <v>169.894308871723</v>
+        <v>169.182068039653</v>
       </c>
       <c r="D253" t="n">
-        <v>150.594007967731</v>
+        <v>147.634048365248</v>
       </c>
       <c r="E253" t="n">
-        <v>192.13338451197</v>
+        <v>191.508153866208</v>
       </c>
       <c r="F253" t="n">
         <v>1919</v>
@@ -10400,13 +10400,13 @@
         <v>123</v>
       </c>
       <c r="C254" t="n">
-        <v>267.823069942343</v>
+        <v>266.419535245761</v>
       </c>
       <c r="D254" t="n">
-        <v>241.714596461569</v>
+        <v>238.602337782586</v>
       </c>
       <c r="E254" t="n">
-        <v>297.396196791564</v>
+        <v>299.271354280782</v>
       </c>
       <c r="F254" t="n">
         <v>1919</v>
@@ -10438,13 +10438,13 @@
         <v>124</v>
       </c>
       <c r="C255" t="n">
-        <v>265.318914666544</v>
+        <v>266.050213634243</v>
       </c>
       <c r="D255" t="n">
-        <v>239.015872557258</v>
+        <v>236.7095034983</v>
       </c>
       <c r="E255" t="n">
-        <v>295.924395097389</v>
+        <v>295.839022263286</v>
       </c>
       <c r="F255" t="n">
         <v>1919</v>
@@ -10476,13 +10476,13 @@
         <v>125</v>
       </c>
       <c r="C256" t="n">
-        <v>573.3697627246</v>
+        <v>573.66030268089</v>
       </c>
       <c r="D256" t="n">
-        <v>523.96212074847</v>
+        <v>517.451953229353</v>
       </c>
       <c r="E256" t="n">
-        <v>622.730372176076</v>
+        <v>632.018425724514</v>
       </c>
       <c r="F256" t="n">
         <v>1919</v>
@@ -10514,13 +10514,13 @@
         <v>126</v>
       </c>
       <c r="C257" t="n">
-        <v>231.654953458543</v>
+        <v>231.24568234728</v>
       </c>
       <c r="D257" t="n">
-        <v>209.38872859765</v>
+        <v>204.357182650632</v>
       </c>
       <c r="E257" t="n">
-        <v>257.810371098383</v>
+        <v>262.187785221747</v>
       </c>
       <c r="F257" t="n">
         <v>1919</v>
@@ -10552,13 +10552,13 @@
         <v>127</v>
       </c>
       <c r="C258" t="n">
-        <v>79.7482033333335</v>
+        <v>79.5070266984128</v>
       </c>
       <c r="D258" t="n">
-        <v>67.9973714767583</v>
+        <v>67.0982580014719</v>
       </c>
       <c r="E258" t="n">
-        <v>93.2657304871973</v>
+        <v>93.8861766441356</v>
       </c>
       <c r="F258" t="n">
         <v>1919</v>
@@ -10590,13 +10590,13 @@
         <v>128</v>
       </c>
       <c r="C259" t="n">
-        <v>64.0193405840633</v>
+        <v>65.4378825134118</v>
       </c>
       <c r="D259" t="n">
-        <v>52.9450484220439</v>
+        <v>54.7029995854215</v>
       </c>
       <c r="E259" t="n">
-        <v>76.0222033739582</v>
+        <v>76.9294470969497</v>
       </c>
       <c r="F259" t="n">
         <v>1919</v>
@@ -10628,13 +10628,13 @@
         <v>129</v>
       </c>
       <c r="C260" t="n">
-        <v>68.0753218573277</v>
+        <v>67.9876948912591</v>
       </c>
       <c r="D260" t="n">
-        <v>57.428085714969</v>
+        <v>56.9877826923592</v>
       </c>
       <c r="E260" t="n">
-        <v>80.8176546973281</v>
+        <v>80.8737479805256</v>
       </c>
       <c r="F260" t="n">
         <v>1919</v>
@@ -10666,13 +10666,13 @@
         <v>130</v>
       </c>
       <c r="C261" t="n">
-        <v>77.3816571859709</v>
+        <v>78.5605128955627</v>
       </c>
       <c r="D261" t="n">
-        <v>65.1410138521611</v>
+        <v>66.6023727892781</v>
       </c>
       <c r="E261" t="n">
-        <v>90.156397734312</v>
+        <v>91.8908754134635</v>
       </c>
       <c r="F261" t="n">
         <v>1919</v>
